--- a/InputData/trans/VSbS/Vehicle Shares by Subregion.xlsx
+++ b/InputData/trans/VSbS/Vehicle Shares by Subregion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/NV/trans/VSbS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\VSbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B783EC85-542A-5C40-A3C6-6F202D4D9F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E91793-1818-4D44-889A-A4ABF3FC1BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="13840" windowHeight="12640" firstSheet="1" activeTab="3" xr2:uid="{F34BB550-7D2B-439D-9C81-D72ED5B29ABD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{F34BB550-7D2B-439D-9C81-D72ED5B29ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -45,6 +45,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="108">
   <si>
     <t>VSbS Vehicle Shares by Subregion</t>
   </si>
@@ -379,9 +380,6 @@
   </si>
   <si>
     <t>U.S. Data Notes</t>
-  </si>
-  <si>
-    <t>Nevada</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1075,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="37" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -1248,7 +1246,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1630,27 +1627,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B0F8C0-DE1A-4000-9351-A11EE8CD5BC4}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="70.1640625" customWidth="1"/>
+    <col min="2" max="2" width="70.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="104">
-        <v>45295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1658,51 +1649,51 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="B4" s="3">
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="102" t="s">
         <v>107</v>
       </c>
       <c r="B13" s="103"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>87</v>
       </c>
@@ -1765,32 +1756,32 @@
       <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="8.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
-    <col min="2" max="16" width="9.83203125" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="9.1640625" style="4"/>
+    <col min="1" max="1" width="11.28515625" style="4" customWidth="1"/>
+    <col min="2" max="16" width="9.85546875" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:16" ht="15">
+      <c r="A1" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="98"/>
@@ -1810,7 +1801,7 @@
       <c r="O2" s="96"/>
       <c r="P2" s="96"/>
     </row>
-    <row r="3" spans="1:16" ht="11">
+    <row r="3" spans="1:16" ht="9">
       <c r="A3" s="97" t="s">
         <v>75</v>
       </c>
@@ -1834,53 +1825,53 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="94"/>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="109"/>
-    </row>
-    <row r="5" spans="1:16" ht="11">
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="108"/>
+    </row>
+    <row r="5" spans="1:16" ht="9">
       <c r="A5" s="79"/>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="112" t="s">
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="111"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="111" t="s">
+      <c r="F5" s="110"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="112" t="s">
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="111"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="111" t="s">
+      <c r="L5" s="110"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="O5" s="111"/>
-      <c r="P5" s="114"/>
-    </row>
-    <row r="6" spans="1:16" ht="11">
+      <c r="O5" s="110"/>
+      <c r="P5" s="113"/>
+    </row>
+    <row r="6" spans="1:16" ht="9">
       <c r="A6" s="79" t="s">
         <v>68</v>
       </c>
@@ -1908,7 +1899,7 @@
       <c r="O6" s="88"/>
       <c r="P6" s="87"/>
     </row>
-    <row r="7" spans="1:16" ht="11">
+    <row r="7" spans="1:16" ht="9">
       <c r="A7" s="79"/>
       <c r="B7" s="79" t="s">
         <v>63</v>
@@ -1954,7 +1945,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="11">
+    <row r="8" spans="1:16" ht="9">
       <c r="A8" s="79"/>
       <c r="B8" s="79" t="s">
         <v>65</v>
@@ -2002,7 +1993,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="11">
+    <row r="9" spans="1:16" ht="9">
       <c r="A9" s="74"/>
       <c r="B9" s="74" t="s">
         <v>60</v>
@@ -2042,7 +2033,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="11">
+    <row r="10" spans="1:16" ht="9">
       <c r="A10" s="19" t="s">
         <v>58</v>
       </c>
@@ -2092,7 +2083,7 @@
         <v>5320340</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="11">
+    <row r="11" spans="1:16" ht="9">
       <c r="A11" s="19" t="s">
         <v>57</v>
       </c>
@@ -2142,7 +2133,7 @@
         <v>792826</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="11">
+    <row r="12" spans="1:16" ht="9">
       <c r="A12" s="19" t="s">
         <v>56</v>
       </c>
@@ -2192,7 +2183,7 @@
         <v>6053781</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="11">
+    <row r="13" spans="1:16" ht="9">
       <c r="A13" s="19" t="s">
         <v>55</v>
       </c>
@@ -2242,7 +2233,7 @@
         <v>2913369</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="11">
+    <row r="14" spans="1:16" ht="9">
       <c r="A14" s="52" t="s">
         <v>54</v>
       </c>
@@ -2292,7 +2283,7 @@
         <v>30398249</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="11">
+    <row r="15" spans="1:16" ht="9">
       <c r="A15" s="19" t="s">
         <v>53</v>
       </c>
@@ -2342,7 +2333,7 @@
         <v>5350708</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="11">
+    <row r="16" spans="1:16" ht="9">
       <c r="A16" s="19" t="s">
         <v>52</v>
       </c>
@@ -2392,7 +2383,7 @@
         <v>2867554</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="11">
+    <row r="17" spans="1:16" ht="9">
       <c r="A17" s="43" t="s">
         <v>51</v>
       </c>
@@ -2442,7 +2433,7 @@
         <v>1006135</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="11">
+    <row r="18" spans="1:16" ht="9">
       <c r="A18" s="19" t="s">
         <v>50</v>
       </c>
@@ -2492,7 +2483,7 @@
         <v>356537</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="11">
+    <row r="19" spans="1:16" ht="9">
       <c r="A19" s="19" t="s">
         <v>49</v>
       </c>
@@ -2542,7 +2533,7 @@
         <v>18464506</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="11">
+    <row r="20" spans="1:16" ht="9">
       <c r="A20" s="19" t="s">
         <v>48</v>
       </c>
@@ -2592,7 +2583,7 @@
         <v>8829596</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="11">
+    <row r="21" spans="1:16" ht="9">
       <c r="A21" s="19" t="s">
         <v>47</v>
       </c>
@@ -2642,7 +2633,7 @@
         <v>1244935</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="11">
+    <row r="22" spans="1:16" ht="9">
       <c r="A22" s="52" t="s">
         <v>46</v>
       </c>
@@ -2692,7 +2683,7 @@
         <v>1917677</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="11">
+    <row r="23" spans="1:16" ht="9">
       <c r="A23" s="19" t="s">
         <v>45</v>
       </c>
@@ -2742,7 +2733,7 @@
         <v>10587725</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="11">
+    <row r="24" spans="1:16" ht="9">
       <c r="A24" s="19" t="s">
         <v>44</v>
       </c>
@@ -2792,7 +2783,7 @@
         <v>6199901</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="11">
+    <row r="25" spans="1:16" ht="9">
       <c r="A25" s="43" t="s">
         <v>43</v>
       </c>
@@ -2842,7 +2833,7 @@
         <v>3787224</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="11">
+    <row r="26" spans="1:16" ht="9">
       <c r="A26" s="19" t="s">
         <v>42</v>
       </c>
@@ -2892,7 +2883,7 @@
         <v>2603543</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="11">
+    <row r="27" spans="1:16" ht="9">
       <c r="A27" s="19" t="s">
         <v>41</v>
       </c>
@@ -2942,7 +2933,7 @@
         <v>4459685</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="11">
+    <row r="28" spans="1:16" ht="9">
       <c r="A28" s="19" t="s">
         <v>40</v>
       </c>
@@ -2992,7 +2983,7 @@
         <v>3861204</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="11">
+    <row r="29" spans="1:16" ht="9">
       <c r="A29" s="19" t="s">
         <v>39</v>
       </c>
@@ -3042,7 +3033,7 @@
         <v>1121106</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="11">
+    <row r="30" spans="1:16" ht="9">
       <c r="A30" s="52" t="s">
         <v>38</v>
       </c>
@@ -3092,7 +3083,7 @@
         <v>4211377</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="11">
+    <row r="31" spans="1:16" ht="9">
       <c r="A31" s="19" t="s">
         <v>37</v>
       </c>
@@ -3142,7 +3133,7 @@
         <v>5036686</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="11">
+    <row r="32" spans="1:16" ht="9">
       <c r="A32" s="19" t="s">
         <v>36</v>
       </c>
@@ -3192,7 +3183,7 @@
         <v>8453239</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="11">
+    <row r="33" spans="1:16" ht="9">
       <c r="A33" s="43" t="s">
         <v>35</v>
       </c>
@@ -3242,7 +3233,7 @@
         <v>5690749</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="11">
+    <row r="34" spans="1:16" ht="9">
       <c r="A34" s="19" t="s">
         <v>34</v>
       </c>
@@ -3292,7 +3283,7 @@
         <v>2058975</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="11">
+    <row r="35" spans="1:16" ht="9">
       <c r="A35" s="19" t="s">
         <v>33</v>
       </c>
@@ -3342,7 +3333,7 @@
         <v>5587022</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="11">
+    <row r="36" spans="1:16" ht="9">
       <c r="A36" s="19" t="s">
         <v>32</v>
       </c>
@@ -3392,7 +3383,7 @@
         <v>1952553</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="11">
+    <row r="37" spans="1:16" ht="9">
       <c r="A37" s="19" t="s">
         <v>31</v>
       </c>
@@ -3442,7 +3433,7 @@
         <v>1935357</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="11">
+    <row r="38" spans="1:16" ht="9">
       <c r="A38" s="52" t="s">
         <v>30</v>
       </c>
@@ -3492,7 +3483,7 @@
         <v>2549357</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="11">
+    <row r="39" spans="1:16" ht="9">
       <c r="A39" s="19" t="s">
         <v>29</v>
       </c>
@@ -3542,7 +3533,7 @@
         <v>1357535</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="11">
+    <row r="40" spans="1:16" ht="9">
       <c r="A40" s="19" t="s">
         <v>28</v>
       </c>
@@ -3592,7 +3583,7 @@
         <v>6006247</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="11">
+    <row r="41" spans="1:16" ht="9">
       <c r="A41" s="43" t="s">
         <v>27</v>
       </c>
@@ -3642,7 +3633,7 @@
         <v>1783151</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="11">
+    <row r="42" spans="1:16" ht="9">
       <c r="A42" s="19" t="s">
         <v>26</v>
       </c>
@@ -3692,7 +3683,7 @@
         <v>11324755</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="11">
+    <row r="43" spans="1:16" ht="9">
       <c r="A43" s="19" t="s">
         <v>25</v>
       </c>
@@ -3742,7 +3733,7 @@
         <v>8739280</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="11">
+    <row r="44" spans="1:16" ht="9">
       <c r="A44" s="19" t="s">
         <v>24</v>
       </c>
@@ -3792,7 +3783,7 @@
         <v>899083</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="11">
+    <row r="45" spans="1:16" ht="9">
       <c r="A45" s="19" t="s">
         <v>23</v>
       </c>
@@ -3842,7 +3833,7 @@
         <v>10592317</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="11">
+    <row r="46" spans="1:16" ht="9">
       <c r="A46" s="52" t="s">
         <v>22</v>
       </c>
@@ -3892,7 +3883,7 @@
         <v>3730247</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="11">
+    <row r="47" spans="1:16" ht="9">
       <c r="A47" s="19" t="s">
         <v>21</v>
       </c>
@@ -3942,7 +3933,7 @@
         <v>4095442</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="11">
+    <row r="48" spans="1:16" ht="9">
       <c r="A48" s="19" t="s">
         <v>20</v>
       </c>
@@ -3992,7 +3983,7 @@
         <v>10690187</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="11">
+    <row r="49" spans="1:16" ht="9">
       <c r="A49" s="43" t="s">
         <v>19</v>
       </c>
@@ -4042,7 +4033,7 @@
         <v>866625</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="11">
+    <row r="50" spans="1:16" ht="9">
       <c r="A50" s="19" t="s">
         <v>18</v>
       </c>
@@ -4092,7 +4083,7 @@
         <v>4561299</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="11">
+    <row r="51" spans="1:16" ht="9">
       <c r="A51" s="19" t="s">
         <v>17</v>
       </c>
@@ -4142,7 +4133,7 @@
         <v>1294282</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="11">
+    <row r="52" spans="1:16" ht="9">
       <c r="A52" s="19" t="s">
         <v>16</v>
       </c>
@@ -4192,7 +4183,7 @@
         <v>5855373</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="11">
+    <row r="53" spans="1:16" ht="9">
       <c r="A53" s="19" t="s">
         <v>15</v>
       </c>
@@ -4242,7 +4233,7 @@
         <v>22419490</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="11">
+    <row r="54" spans="1:16" ht="9">
       <c r="A54" s="52" t="s">
         <v>14</v>
       </c>
@@ -4292,7 +4283,7 @@
         <v>2479604</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="11">
+    <row r="55" spans="1:16" ht="9">
       <c r="A55" s="19" t="s">
         <v>13</v>
       </c>
@@ -4342,7 +4333,7 @@
         <v>607890</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="11">
+    <row r="56" spans="1:16" ht="9">
       <c r="A56" s="19" t="s">
         <v>12</v>
       </c>
@@ -4392,7 +4383,7 @@
         <v>7606452</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="11">
+    <row r="57" spans="1:16" ht="9">
       <c r="A57" s="43" t="s">
         <v>11</v>
       </c>
@@ -4442,7 +4433,7 @@
         <v>7257401</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="11">
+    <row r="58" spans="1:16" ht="9">
       <c r="A58" s="19" t="s">
         <v>10</v>
       </c>
@@ -4492,7 +4483,7 @@
         <v>1657362</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="11">
+    <row r="59" spans="1:16" ht="9">
       <c r="A59" s="19" t="s">
         <v>9</v>
       </c>
@@ -4542,7 +4533,7 @@
         <v>5616271</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="11">
+    <row r="60" spans="1:16" ht="9">
       <c r="A60" s="19" t="s">
         <v>8</v>
       </c>
@@ -4592,7 +4583,7 @@
         <v>861028</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="11">
+    <row r="61" spans="1:16" ht="9">
       <c r="A61" s="11" t="s">
         <v>7</v>
       </c>
@@ -4642,7 +4633,7 @@
         <v>275913237</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="11">
+    <row r="62" spans="1:16" ht="9">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -4660,25 +4651,25 @@
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
     </row>
-    <row r="63" spans="1:16" ht="39.5" customHeight="1">
-      <c r="A63" s="105" t="s">
+    <row r="63" spans="1:16" ht="39.6" customHeight="1">
+      <c r="A63" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="105"/>
-      <c r="C63" s="105"/>
-      <c r="D63" s="105"/>
-      <c r="E63" s="105"/>
-      <c r="F63" s="105"/>
-      <c r="G63" s="105"/>
-      <c r="H63" s="105"/>
-      <c r="I63" s="105"/>
-      <c r="J63" s="105"/>
-      <c r="K63" s="105"/>
-      <c r="L63" s="105"/>
-      <c r="M63" s="105"/>
-      <c r="N63" s="105"/>
-      <c r="O63" s="105"/>
-      <c r="P63" s="105"/>
+      <c r="B63" s="104"/>
+      <c r="C63" s="104"/>
+      <c r="D63" s="104"/>
+      <c r="E63" s="104"/>
+      <c r="F63" s="104"/>
+      <c r="G63" s="104"/>
+      <c r="H63" s="104"/>
+      <c r="I63" s="104"/>
+      <c r="J63" s="104"/>
+      <c r="K63" s="104"/>
+      <c r="L63" s="104"/>
+      <c r="M63" s="104"/>
+      <c r="N63" s="104"/>
+      <c r="O63" s="104"/>
+      <c r="P63" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4733,14 +4724,14 @@
   </sheetPr>
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="7" width="13.6640625" customWidth="1"/>
+    <col min="2" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4771,22 +4762,28 @@
         <v>58</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <f>'Table MV-1'!D10/'Table MV-1'!$D$61</f>
+        <v>1.9359587122498342E-2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <f>'Table MV-1'!G10/'Table MV-1'!$G$61</f>
+        <v>5.5878521842202787E-3</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <f>'Table MV-1'!$P10/'Table MV-1'!$P$61</f>
+        <v>1.9282655873447636E-2</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <f>'Table MV-1'!$P10/'Table MV-1'!$P$61</f>
+        <v>1.9282655873447636E-2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <f>'Table MV-1'!$P10/'Table MV-1'!$P$61</f>
+        <v>1.9282655873447636E-2</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <f>'Table MV-1'!M10/'Table MV-1'!$M$61</f>
+        <v>1.3796718114729099E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4794,22 +4791,28 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <f>'Table MV-1'!D11/'Table MV-1'!$D$61</f>
+        <v>1.6278452622477892E-3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <f>'Table MV-1'!G11/'Table MV-1'!$G$61</f>
+        <v>8.5645956308639404E-3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <f>'Table MV-1'!$P11/'Table MV-1'!$P$61</f>
+        <v>2.8734612685508815E-3</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <f>'Table MV-1'!$P11/'Table MV-1'!$P$61</f>
+        <v>2.8734612685508815E-3</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <f>'Table MV-1'!$P11/'Table MV-1'!$P$61</f>
+        <v>2.8734612685508815E-3</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <f>'Table MV-1'!M11/'Table MV-1'!$M$61</f>
+        <v>3.2157240392212427E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4817,22 +4820,28 @@
         <v>56</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <f>'Table MV-1'!D12/'Table MV-1'!$D$61</f>
+        <v>2.2923014439488926E-2</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <f>'Table MV-1'!G12/'Table MV-1'!$G$61</f>
+        <v>8.4314569052797456E-3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <f>'Table MV-1'!$P12/'Table MV-1'!$P$61</f>
+        <v>2.194088643887716E-2</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <f>'Table MV-1'!$P12/'Table MV-1'!$P$61</f>
+        <v>2.194088643887716E-2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <f>'Table MV-1'!$P12/'Table MV-1'!$P$61</f>
+        <v>2.194088643887716E-2</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <f>'Table MV-1'!M12/'Table MV-1'!$M$61</f>
+        <v>1.4537940044235568E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4840,22 +4849,28 @@
         <v>55</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <f>'Table MV-1'!D13/'Table MV-1'!$D$61</f>
+        <v>8.298230946218824E-3</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <f>'Table MV-1'!G13/'Table MV-1'!$G$61</f>
+        <v>1.1966588141313841E-2</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <f>'Table MV-1'!$P13/'Table MV-1'!$P$61</f>
+        <v>1.0559004097364129E-2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <f>'Table MV-1'!$P13/'Table MV-1'!$P$61</f>
+        <v>1.0559004097364129E-2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <f>'Table MV-1'!$P13/'Table MV-1'!$P$61</f>
+        <v>1.0559004097364129E-2</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <f>'Table MV-1'!M13/'Table MV-1'!$M$61</f>
+        <v>2.0388346017237942E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4863,22 +4878,28 @@
         <v>54</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <f>'Table MV-1'!D14/'Table MV-1'!$D$61</f>
+        <v>0.13507737172957132</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <f>'Table MV-1'!G14/'Table MV-1'!$G$61</f>
+        <v>0.10017993599405446</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <f>'Table MV-1'!$P14/'Table MV-1'!$P$61</f>
+        <v>0.1101732172422014</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <f>'Table MV-1'!$P14/'Table MV-1'!$P$61</f>
+        <v>0.1101732172422014</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <f>'Table MV-1'!$P14/'Table MV-1'!$P$61</f>
+        <v>0.1101732172422014</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <f>'Table MV-1'!M14/'Table MV-1'!$M$61</f>
+        <v>9.4309653776233349E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4886,22 +4907,28 @@
         <v>53</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <f>'Table MV-1'!D15/'Table MV-1'!$D$61</f>
+        <v>1.5589702031572649E-2</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <f>'Table MV-1'!G15/'Table MV-1'!$G$61</f>
+        <v>1.3631815783695276E-2</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <f>'Table MV-1'!$P15/'Table MV-1'!$P$61</f>
+        <v>1.9392719458399887E-2</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <f>'Table MV-1'!$P15/'Table MV-1'!$P$61</f>
+        <v>1.9392719458399887E-2</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <f>'Table MV-1'!$P15/'Table MV-1'!$P$61</f>
+        <v>1.9392719458399887E-2</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <f>'Table MV-1'!M15/'Table MV-1'!$M$61</f>
+        <v>2.1503721119001361E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4909,22 +4936,28 @@
         <v>52</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <f>'Table MV-1'!D16/'Table MV-1'!$D$61</f>
+        <v>1.1520117410612801E-2</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <f>'Table MV-1'!G16/'Table MV-1'!$G$61</f>
+        <v>1.169732997240849E-2</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <f>'Table MV-1'!$P16/'Table MV-1'!$P$61</f>
+        <v>1.0392955521738887E-2</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <f>'Table MV-1'!$P16/'Table MV-1'!$P$61</f>
+        <v>1.0392955521738887E-2</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <f>'Table MV-1'!$P16/'Table MV-1'!$P$61</f>
+        <v>1.0392955521738887E-2</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <f>'Table MV-1'!M16/'Table MV-1'!$M$61</f>
+        <v>9.7199374650282049E-3</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4932,22 +4965,28 @@
         <v>51</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <f>'Table MV-1'!D17/'Table MV-1'!$D$61</f>
+        <v>3.955997652548668E-3</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <f>'Table MV-1'!G17/'Table MV-1'!$G$61</f>
+        <v>3.8341965823090428E-3</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <f>'Table MV-1'!$P17/'Table MV-1'!$P$61</f>
+        <v>3.6465629954535311E-3</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <f>'Table MV-1'!$P17/'Table MV-1'!$P$61</f>
+        <v>3.6465629954535311E-3</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <f>'Table MV-1'!$P17/'Table MV-1'!$P$61</f>
+        <v>3.6465629954535311E-3</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <f>'Table MV-1'!M17/'Table MV-1'!$M$61</f>
+        <v>4.8306104364239793E-4</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4955,22 +4994,28 @@
         <v>84</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <f>'Table MV-1'!D18/'Table MV-1'!$D$61</f>
+        <v>2.0002511050046939E-3</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <f>'Table MV-1'!G18/'Table MV-1'!$G$61</f>
+        <v>5.1000080479378894E-3</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <f>'Table MV-1'!$P18/'Table MV-1'!$P$61</f>
+        <v>1.2922069411262062E-3</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <f>'Table MV-1'!$P18/'Table MV-1'!$P$61</f>
+        <v>1.2922069411262062E-3</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <f>'Table MV-1'!$P18/'Table MV-1'!$P$61</f>
+        <v>1.2922069411262062E-3</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <f>'Table MV-1'!M18/'Table MV-1'!$M$61</f>
+        <v>4.2830692087308811E-4</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4978,22 +5023,28 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <f>'Table MV-1'!D19/'Table MV-1'!$D$61</f>
+        <v>7.4585348593669304E-2</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <f>'Table MV-1'!G19/'Table MV-1'!$G$61</f>
+        <v>5.9786242795356839E-2</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <f>'Table MV-1'!$P19/'Table MV-1'!$P$61</f>
+        <v>6.6921421388709962E-2</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <f>'Table MV-1'!$P19/'Table MV-1'!$P$61</f>
+        <v>6.6921421388709962E-2</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <f>'Table MV-1'!$P19/'Table MV-1'!$P$61</f>
+        <v>6.6921421388709962E-2</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <f>'Table MV-1'!M19/'Table MV-1'!$M$61</f>
+        <v>7.4455640755318714E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5001,22 +5052,28 @@
         <v>48</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <f>'Table MV-1'!D20/'Table MV-1'!$D$61</f>
+        <v>3.3246882826224872E-2</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <f>'Table MV-1'!G20/'Table MV-1'!$G$61</f>
+        <v>3.6664815309761158E-2</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <f>'Table MV-1'!$P20/'Table MV-1'!$P$61</f>
+        <v>3.2001349757641386E-2</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <f>'Table MV-1'!$P20/'Table MV-1'!$P$61</f>
+        <v>3.2001349757641386E-2</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <f>'Table MV-1'!$P20/'Table MV-1'!$P$61</f>
+        <v>3.2001349757641386E-2</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <f>'Table MV-1'!M20/'Table MV-1'!$M$61</f>
+        <v>2.4934379105058271E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5024,22 +5081,28 @@
         <v>47</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <f>'Table MV-1'!D21/'Table MV-1'!$D$61</f>
+        <v>4.5177880312321358E-3</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <f>'Table MV-1'!G21/'Table MV-1'!$G$61</f>
+        <v>2.8664568903761568E-3</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <f>'Table MV-1'!$P21/'Table MV-1'!$P$61</f>
+        <v>4.5120524608973367E-3</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <f>'Table MV-1'!$P21/'Table MV-1'!$P$61</f>
+        <v>4.5120524608973367E-3</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <f>'Table MV-1'!$P21/'Table MV-1'!$P$61</f>
+        <v>4.5120524608973367E-3</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <f>'Table MV-1'!M21/'Table MV-1'!$M$61</f>
+        <v>4.4403672368620124E-3</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5047,22 +5110,28 @@
         <v>46</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <f>'Table MV-1'!D22/'Table MV-1'!$D$61</f>
+        <v>5.5962364686266176E-3</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <f>'Table MV-1'!G22/'Table MV-1'!$G$61</f>
+        <v>3.782530808201743E-3</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <f>'Table MV-1'!$P22/'Table MV-1'!$P$61</f>
+        <v>6.9502899565489131E-3</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <f>'Table MV-1'!$P22/'Table MV-1'!$P$61</f>
+        <v>6.9502899565489131E-3</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <f>'Table MV-1'!$P22/'Table MV-1'!$P$61</f>
+        <v>6.9502899565489131E-3</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <f>'Table MV-1'!M22/'Table MV-1'!$M$61</f>
+        <v>7.1114318443253836E-3</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5070,22 +5139,28 @@
         <v>45</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <f>'Table MV-1'!D23/'Table MV-1'!$D$61</f>
+        <v>3.9583802966272987E-2</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <f>'Table MV-1'!G23/'Table MV-1'!$G$61</f>
+        <v>3.2598122743969261E-2</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <f>'Table MV-1'!$P23/'Table MV-1'!$P$61</f>
+        <v>3.837338547117259E-2</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <f>'Table MV-1'!$P23/'Table MV-1'!$P$61</f>
+        <v>3.837338547117259E-2</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <f>'Table MV-1'!$P23/'Table MV-1'!$P$61</f>
+        <v>3.837338547117259E-2</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <f>'Table MV-1'!M23/'Table MV-1'!$M$61</f>
+        <v>3.3659616673110682E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5093,22 +5168,28 @@
         <v>44</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <f>'Table MV-1'!D24/'Table MV-1'!$D$61</f>
+        <v>2.0200142102604929E-2</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <f>'Table MV-1'!G24/'Table MV-1'!$G$61</f>
+        <v>2.0735859723449008E-2</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <f>'Table MV-1'!$P24/'Table MV-1'!$P$61</f>
+        <v>2.2470473208938503E-2</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <f>'Table MV-1'!$P24/'Table MV-1'!$P$61</f>
+        <v>2.2470473208938503E-2</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <f>'Table MV-1'!$P24/'Table MV-1'!$P$61</f>
+        <v>2.2470473208938503E-2</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <f>'Table MV-1'!M24/'Table MV-1'!$M$61</f>
+        <v>2.519458126304313E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -5116,22 +5197,28 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <f>'Table MV-1'!D25/'Table MV-1'!$D$61</f>
+        <v>1.1069079557484499E-2</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <f>'Table MV-1'!G25/'Table MV-1'!$G$61</f>
+        <v>9.1140412670434948E-3</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <f>'Table MV-1'!$P25/'Table MV-1'!$P$61</f>
+        <v>1.3726141018743511E-2</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <f>'Table MV-1'!$P25/'Table MV-1'!$P$61</f>
+        <v>1.3726141018743511E-2</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <f>'Table MV-1'!$P25/'Table MV-1'!$P$61</f>
+        <v>1.3726141018743511E-2</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <f>'Table MV-1'!M25/'Table MV-1'!$M$61</f>
+        <v>2.3030832815010314E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5139,22 +5226,28 @@
         <v>42</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <f>'Table MV-1'!D26/'Table MV-1'!$D$61</f>
+        <v>8.4565602609209273E-3</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <f>'Table MV-1'!G26/'Table MV-1'!$G$61</f>
+        <v>6.5585725938901249E-3</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <f>'Table MV-1'!$P26/'Table MV-1'!$P$61</f>
+        <v>9.4360931295224514E-3</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <f>'Table MV-1'!$P26/'Table MV-1'!$P$61</f>
+        <v>9.4360931295224514E-3</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <f>'Table MV-1'!$P26/'Table MV-1'!$P$61</f>
+        <v>9.4360931295224514E-3</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <f>'Table MV-1'!M26/'Table MV-1'!$M$61</f>
+        <v>1.0883942873198577E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5162,22 +5255,28 @@
         <v>41</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <f>'Table MV-1'!D27/'Table MV-1'!$D$61</f>
+        <v>1.5641720716067772E-2</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <f>'Table MV-1'!G27/'Table MV-1'!$G$61</f>
+        <v>1.0917375497904058E-2</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <f>'Table MV-1'!$P27/'Table MV-1'!$P$61</f>
+        <v>1.6163360078298817E-2</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <f>'Table MV-1'!$P27/'Table MV-1'!$P$61</f>
+        <v>1.6163360078298817E-2</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <f>'Table MV-1'!$P27/'Table MV-1'!$P$61</f>
+        <v>1.6163360078298817E-2</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <f>'Table MV-1'!M27/'Table MV-1'!$M$61</f>
+        <v>1.166599024512076E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5185,22 +5284,28 @@
         <v>40</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <f>'Table MV-1'!D28/'Table MV-1'!$D$61</f>
+        <v>1.2514264951923855E-2</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <f>'Table MV-1'!G28/'Table MV-1'!$G$61</f>
+        <v>2.9889643893651965E-2</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <f>'Table MV-1'!$P28/'Table MV-1'!$P$61</f>
+        <v>1.3994268785299344E-2</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <f>'Table MV-1'!$P28/'Table MV-1'!$P$61</f>
+        <v>1.3994268785299344E-2</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <f>'Table MV-1'!$P28/'Table MV-1'!$P$61</f>
+        <v>1.3994268785299344E-2</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <f>'Table MV-1'!M28/'Table MV-1'!$M$61</f>
+        <v>1.2186394561090472E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -5208,22 +5313,28 @@
         <v>39</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <f>'Table MV-1'!D29/'Table MV-1'!$D$61</f>
+        <v>3.3868643547885439E-3</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <f>'Table MV-1'!G29/'Table MV-1'!$G$61</f>
+        <v>4.5932860326547567E-3</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <f>'Table MV-1'!$P29/'Table MV-1'!$P$61</f>
+        <v>4.0632555805939817E-3</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <f>'Table MV-1'!$P29/'Table MV-1'!$P$61</f>
+        <v>4.0632555805939817E-3</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <f>'Table MV-1'!$P29/'Table MV-1'!$P$61</f>
+        <v>4.0632555805939817E-3</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <f>'Table MV-1'!M29/'Table MV-1'!$M$61</f>
+        <v>4.6036690065248661E-3</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5231,22 +5342,28 @@
         <v>38</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <f>'Table MV-1'!D30/'Table MV-1'!$D$61</f>
+        <v>1.7344821387298082E-2</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <f>'Table MV-1'!G30/'Table MV-1'!$G$61</f>
+        <v>2.2395125930356523E-2</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <f>'Table MV-1'!$P30/'Table MV-1'!$P$61</f>
+        <v>1.5263410504658027E-2</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <f>'Table MV-1'!$P30/'Table MV-1'!$P$61</f>
+        <v>1.5263410504658027E-2</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <f>'Table MV-1'!$P30/'Table MV-1'!$P$61</f>
+        <v>1.5263410504658027E-2</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <f>'Table MV-1'!M30/'Table MV-1'!$M$61</f>
+        <v>1.3514422187907504E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5254,22 +5371,28 @@
         <v>83</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <f>'Table MV-1'!D31/'Table MV-1'!$D$61</f>
+        <v>1.9055188885179382E-2</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <f>'Table MV-1'!G31/'Table MV-1'!$G$61</f>
+        <v>1.3663610106222844E-2</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <f>'Table MV-1'!$P31/'Table MV-1'!$P$61</f>
+        <v>1.8254600811341285E-2</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <f>'Table MV-1'!$P31/'Table MV-1'!$P$61</f>
+        <v>1.8254600811341285E-2</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <f>'Table MV-1'!$P31/'Table MV-1'!$P$61</f>
+        <v>1.8254600811341285E-2</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <f>'Table MV-1'!M31/'Table MV-1'!$M$61</f>
+        <v>1.6585095831722331E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5277,22 +5400,28 @@
         <v>36</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <f>'Table MV-1'!D32/'Table MV-1'!$D$61</f>
+        <v>2.5602285816466973E-2</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <f>'Table MV-1'!G32/'Table MV-1'!$G$61</f>
+        <v>8.8845260012976063E-3</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <f>'Table MV-1'!$P32/'Table MV-1'!$P$61</f>
+        <v>3.0637308640614442E-2</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <f>'Table MV-1'!$P32/'Table MV-1'!$P$61</f>
+        <v>3.0637308640614442E-2</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <f>'Table MV-1'!$P32/'Table MV-1'!$P$61</f>
+        <v>3.0637308640614442E-2</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <f>'Table MV-1'!M32/'Table MV-1'!$M$61</f>
+        <v>2.8515490853900149E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5300,22 +5429,28 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <f>'Table MV-1'!D33/'Table MV-1'!$D$61</f>
+        <v>1.7517332427833467E-2</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <f>'Table MV-1'!G33/'Table MV-1'!$G$61</f>
+        <v>1.9068644935909602E-2</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <f>'Table MV-1'!$P33/'Table MV-1'!$P$61</f>
+        <v>2.0625139489048872E-2</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <f>'Table MV-1'!$P33/'Table MV-1'!$P$61</f>
+        <v>2.0625139489048872E-2</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <f>'Table MV-1'!$P33/'Table MV-1'!$P$61</f>
+        <v>2.0625139489048872E-2</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <f>'Table MV-1'!M33/'Table MV-1'!$M$61</f>
+        <v>2.9294896579548375E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5323,22 +5458,28 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <f>'Table MV-1'!D34/'Table MV-1'!$D$61</f>
+        <v>7.4991463380995726E-3</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <f>'Table MV-1'!G34/'Table MV-1'!$G$61</f>
+        <v>7.3385270683945557E-3</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <f>'Table MV-1'!$P34/'Table MV-1'!$P$61</f>
+        <v>7.462400218225123E-3</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <f>'Table MV-1'!$P34/'Table MV-1'!$P$61</f>
+        <v>7.462400218225123E-3</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <f>'Table MV-1'!$P34/'Table MV-1'!$P$61</f>
+        <v>7.462400218225123E-3</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <f>'Table MV-1'!M34/'Table MV-1'!$M$61</f>
+        <v>3.6710477969870824E-3</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5346,22 +5487,28 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <f>'Table MV-1'!D35/'Table MV-1'!$D$61</f>
+        <v>1.8941078781341755E-2</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <f>'Table MV-1'!G35/'Table MV-1'!$G$61</f>
+        <v>3.3533074540795592E-2</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <f>'Table MV-1'!$P35/'Table MV-1'!$P$61</f>
+        <v>2.024919884507027E-2</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <f>'Table MV-1'!$P35/'Table MV-1'!$P$61</f>
+        <v>2.024919884507027E-2</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <f>'Table MV-1'!$P35/'Table MV-1'!$P$61</f>
+        <v>2.024919884507027E-2</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <f>'Table MV-1'!M35/'Table MV-1'!$M$61</f>
+        <v>1.5214201490368798E-2</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5369,22 +5516,28 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <f>'Table MV-1'!D36/'Table MV-1'!$D$61</f>
+        <v>4.3665733583296952E-3</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <f>'Table MV-1'!G36/'Table MV-1'!$G$61</f>
+        <v>5.1616095478350553E-3</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <f>'Table MV-1'!$P36/'Table MV-1'!$P$61</f>
+        <v>7.0766920109744495E-3</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <f>'Table MV-1'!$P36/'Table MV-1'!$P$61</f>
+        <v>7.0766920109744495E-3</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <f>'Table MV-1'!$P36/'Table MV-1'!$P$61</f>
+        <v>7.0766920109744495E-3</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <f>'Table MV-1'!M36/'Table MV-1'!$M$61</f>
+        <v>4.2647577970591273E-2</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -5392,22 +5545,28 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <f>'Table MV-1'!D37/'Table MV-1'!$D$61</f>
+        <v>5.9438361806167864E-3</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <f>'Table MV-1'!G37/'Table MV-1'!$G$61</f>
+        <v>1.7177876318098223E-2</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <f>'Table MV-1'!$P37/'Table MV-1'!$P$61</f>
+        <v>7.0143680710759082E-3</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <f>'Table MV-1'!$P37/'Table MV-1'!$P$61</f>
+        <v>7.0143680710759082E-3</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <f>'Table MV-1'!$P37/'Table MV-1'!$P$61</f>
+        <v>7.0143680710759082E-3</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <f>'Table MV-1'!M37/'Table MV-1'!$M$61</f>
+        <v>6.0485294435492195E-3</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -5415,22 +5574,28 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <f>'Table MV-1'!D38/'Table MV-1'!$D$61</f>
+        <v>9.7731494559867137E-3</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <f>'Table MV-1'!G38/'Table MV-1'!$G$61</f>
+        <v>3.1883744059677944E-3</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <f>'Table MV-1'!$P38/'Table MV-1'!$P$61</f>
+        <v>9.2397053063459945E-3</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <f>'Table MV-1'!$P38/'Table MV-1'!$P$61</f>
+        <v>9.2397053063459945E-3</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <f>'Table MV-1'!$P38/'Table MV-1'!$P$61</f>
+        <v>9.2397053063459945E-3</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <f>'Table MV-1'!M38/'Table MV-1'!$M$61</f>
+        <v>8.327909953483011E-3</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5438,22 +5603,28 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <f>'Table MV-1'!D39/'Table MV-1'!$D$61</f>
+        <v>4.3831615071246288E-3</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <f>'Table MV-1'!G39/'Table MV-1'!$G$61</f>
+        <v>3.0602035432785312E-3</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <f>'Table MV-1'!$P39/'Table MV-1'!$P$61</f>
+        <v>4.9201517649550101E-3</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <f>'Table MV-1'!$P39/'Table MV-1'!$P$61</f>
+        <v>4.9201517649550101E-3</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <f>'Table MV-1'!$P39/'Table MV-1'!$P$61</f>
+        <v>4.9201517649550101E-3</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <f>'Table MV-1'!M39/'Table MV-1'!$M$61</f>
+        <v>9.4484482729637106E-3</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -5461,22 +5632,28 @@
         <v>28</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <f>'Table MV-1'!D40/'Table MV-1'!$D$61</f>
+        <v>2.4170045645943845E-2</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <f>'Table MV-1'!G40/'Table MV-1'!$G$61</f>
+        <v>2.5791157005332504E-2</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <f>'Table MV-1'!$P40/'Table MV-1'!$P$61</f>
+        <v>2.1768607643858712E-2</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <f>'Table MV-1'!$P40/'Table MV-1'!$P$61</f>
+        <v>2.1768607643858712E-2</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <f>'Table MV-1'!$P40/'Table MV-1'!$P$61</f>
+        <v>2.1768607643858712E-2</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <f>'Table MV-1'!M40/'Table MV-1'!$M$61</f>
+        <v>1.4574562867579076E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -5484,22 +5661,28 @@
         <v>27</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <f>'Table MV-1'!D41/'Table MV-1'!$D$61</f>
+        <v>5.9347811819626707E-3</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <f>'Table MV-1'!G41/'Table MV-1'!$G$61</f>
+        <v>9.7280691208571756E-3</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <f>'Table MV-1'!$P41/'Table MV-1'!$P$61</f>
+        <v>6.4627236423600801E-3</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <f>'Table MV-1'!$P41/'Table MV-1'!$P$61</f>
+        <v>6.4627236423600801E-3</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <f>'Table MV-1'!$P41/'Table MV-1'!$P$61</f>
+        <v>6.4627236423600801E-3</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <f>'Table MV-1'!M41/'Table MV-1'!$M$61</f>
+        <v>6.5976316440405662E-3</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -5507,22 +5690,28 @@
         <v>26</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <f>'Table MV-1'!D42/'Table MV-1'!$D$61</f>
+        <v>4.0260007818496736E-2</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <f>'Table MV-1'!G42/'Table MV-1'!$G$61</f>
+        <v>8.1156995396778245E-2</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <f>'Table MV-1'!$P42/'Table MV-1'!$P$61</f>
+        <v>4.1044623748877983E-2</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <f>'Table MV-1'!$P42/'Table MV-1'!$P$61</f>
+        <v>4.1044623748877983E-2</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <f>'Table MV-1'!$P42/'Table MV-1'!$P$61</f>
+        <v>4.1044623748877983E-2</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <f>'Table MV-1'!M42/'Table MV-1'!$M$61</f>
+        <v>4.6183181358622691E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -5530,22 +5719,28 @@
         <v>25</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <f>'Table MV-1'!D43/'Table MV-1'!$D$61</f>
+        <v>3.232472823114596E-2</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <f>'Table MV-1'!G43/'Table MV-1'!$G$61</f>
+        <v>3.311776120277922E-2</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <f>'Table MV-1'!$P43/'Table MV-1'!$P$61</f>
+        <v>3.167401497304749E-2</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <f>'Table MV-1'!$P43/'Table MV-1'!$P$61</f>
+        <v>3.167401497304749E-2</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <f>'Table MV-1'!$P43/'Table MV-1'!$P$61</f>
+        <v>3.167401497304749E-2</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <f>'Table MV-1'!M43/'Table MV-1'!$M$61</f>
+        <v>2.2775793874742739E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -5553,22 +5748,28 @@
         <v>24</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <f>'Table MV-1'!D44/'Table MV-1'!$D$61</f>
+        <v>2.0512044955405084E-3</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <f>'Table MV-1'!G44/'Table MV-1'!$G$61</f>
+        <v>3.6394563568276817E-3</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <f>'Table MV-1'!$P44/'Table MV-1'!$P$61</f>
+        <v>3.2585714617236724E-3</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <f>'Table MV-1'!$P44/'Table MV-1'!$P$61</f>
+        <v>3.2585714617236724E-3</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <f>'Table MV-1'!$P44/'Table MV-1'!$P$61</f>
+        <v>3.2585714617236724E-3</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <f>'Table MV-1'!M44/'Table MV-1'!$M$61</f>
+        <v>4.3507914132087117E-3</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -5576,22 +5777,28 @@
         <v>23</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <f>'Table MV-1'!D45/'Table MV-1'!$D$61</f>
+        <v>4.0403584714173067E-2</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <f>'Table MV-1'!G45/'Table MV-1'!$G$61</f>
+        <v>4.1215377721519487E-2</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <f>'Table MV-1'!$P45/'Table MV-1'!$P$61</f>
+        <v>3.8390028384176433E-2</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <f>'Table MV-1'!$P45/'Table MV-1'!$P$61</f>
+        <v>3.8390028384176433E-2</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <f>'Table MV-1'!$P45/'Table MV-1'!$P$61</f>
+        <v>3.8390028384176433E-2</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <f>'Table MV-1'!M45/'Table MV-1'!$M$61</f>
+        <v>4.5702521811592983E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -5599,22 +5806,28 @@
         <v>22</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <f>'Table MV-1'!D46/'Table MV-1'!$D$61</f>
+        <v>1.1640695370631938E-2</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <f>'Table MV-1'!G46/'Table MV-1'!$G$61</f>
+        <v>2.8227396969007492E-3</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <f>'Table MV-1'!$P46/'Table MV-1'!$P$61</f>
+        <v>1.3519637696831486E-2</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <f>'Table MV-1'!$P46/'Table MV-1'!$P$61</f>
+        <v>1.3519637696831486E-2</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <f>'Table MV-1'!$P46/'Table MV-1'!$P$61</f>
+        <v>1.3519637696831486E-2</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <f>'Table MV-1'!M46/'Table MV-1'!$M$61</f>
+        <v>1.6077419447799869E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -5622,22 +5835,28 @@
         <v>21</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <f>'Table MV-1'!D47/'Table MV-1'!$D$61</f>
+        <v>1.3704702416790554E-2</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <f>'Table MV-1'!G47/'Table MV-1'!$G$61</f>
+        <v>1.772632838169879E-2</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <f>'Table MV-1'!$P47/'Table MV-1'!$P$61</f>
+        <v>1.4843224067571648E-2</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <f>'Table MV-1'!$P47/'Table MV-1'!$P$61</f>
+        <v>1.4843224067571648E-2</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <f>'Table MV-1'!$P47/'Table MV-1'!$P$61</f>
+        <v>1.4843224067571648E-2</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <f>'Table MV-1'!M47/'Table MV-1'!$M$61</f>
+        <v>1.4843290338538977E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -5645,22 +5864,28 @@
         <v>20</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <f>'Table MV-1'!D48/'Table MV-1'!$D$61</f>
+        <v>3.846201038090917E-2</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <f>'Table MV-1'!G48/'Table MV-1'!$G$61</f>
+        <v>5.4911775722848888E-2</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <f>'Table MV-1'!$P48/'Table MV-1'!$P$61</f>
+        <v>3.8744741340554098E-2</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <f>'Table MV-1'!$P48/'Table MV-1'!$P$61</f>
+        <v>3.8744741340554098E-2</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <f>'Table MV-1'!$P48/'Table MV-1'!$P$61</f>
+        <v>3.8744741340554098E-2</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <f>'Table MV-1'!M48/'Table MV-1'!$M$61</f>
+        <v>4.3286135919905287E-2</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -5668,22 +5893,28 @@
         <v>19</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <f>'Table MV-1'!D49/'Table MV-1'!$D$61</f>
+        <v>3.6311971335983252E-3</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <f>'Table MV-1'!G49/'Table MV-1'!$G$61</f>
+        <v>2.3031012380907907E-3</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <f>'Table MV-1'!$P49/'Table MV-1'!$P$61</f>
+        <v>3.1409330317849157E-3</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <f>'Table MV-1'!$P49/'Table MV-1'!$P$61</f>
+        <v>3.1409330317849157E-3</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <f>'Table MV-1'!$P49/'Table MV-1'!$P$61</f>
+        <v>3.1409330317849157E-3</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <f>'Table MV-1'!M49/'Table MV-1'!$M$61</f>
+        <v>2.8346065267874938E-3</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -5691,22 +5922,28 @@
         <v>18</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <f>'Table MV-1'!D50/'Table MV-1'!$D$61</f>
+        <v>1.6810224539236585E-2</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <f>'Table MV-1'!G50/'Table MV-1'!$G$61</f>
+        <v>1.6360166085592303E-2</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <f>'Table MV-1'!$P50/'Table MV-1'!$P$61</f>
+        <v>1.6531642517752781E-2</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <f>'Table MV-1'!$P50/'Table MV-1'!$P$61</f>
+        <v>1.6531642517752781E-2</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <f>'Table MV-1'!$P50/'Table MV-1'!$P$61</f>
+        <v>1.6531642517752781E-2</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <f>'Table MV-1'!M50/'Table MV-1'!$M$61</f>
+        <v>1.3750249155273566E-2</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -5714,22 +5951,28 @@
         <v>17</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <f>'Table MV-1'!D51/'Table MV-1'!$D$61</f>
+        <v>3.0912643041870807E-3</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <f>'Table MV-1'!G51/'Table MV-1'!$G$61</f>
+        <v>2.6518452133150647E-3</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <f>'Table MV-1'!$P51/'Table MV-1'!$P$61</f>
+        <v>4.6909021621169989E-3</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <f>'Table MV-1'!$P51/'Table MV-1'!$P$61</f>
+        <v>4.6909021621169989E-3</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <f>'Table MV-1'!$P51/'Table MV-1'!$P$61</f>
+        <v>4.6909021621169989E-3</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <f>'Table MV-1'!M51/'Table MV-1'!$M$61</f>
+        <v>1.5581990696602122E-2</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -5737,22 +5980,28 @@
         <v>16</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <f>'Table MV-1'!D52/'Table MV-1'!$D$61</f>
+        <v>2.0122946336767956E-2</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <f>'Table MV-1'!G52/'Table MV-1'!$G$61</f>
+        <v>2.9370005434842007E-2</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <f>'Table MV-1'!$P52/'Table MV-1'!$P$61</f>
+        <v>2.1221790819698876E-2</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <f>'Table MV-1'!$P52/'Table MV-1'!$P$61</f>
+        <v>2.1221790819698876E-2</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <f>'Table MV-1'!$P52/'Table MV-1'!$P$61</f>
+        <v>2.1221790819698876E-2</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <f>'Table MV-1'!M52/'Table MV-1'!$M$61</f>
+        <v>2.12856652265692E-2</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -5760,22 +6009,28 @@
         <v>15</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <f>'Table MV-1'!D53/'Table MV-1'!$D$61</f>
+        <v>7.6929994017233036E-2</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <f>'Table MV-1'!G53/'Table MV-1'!$G$61</f>
+        <v>7.0475096600093989E-2</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <f>'Table MV-1'!$P53/'Table MV-1'!$P$61</f>
+        <v>8.1255579629910979E-2</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <f>'Table MV-1'!$P53/'Table MV-1'!$P$61</f>
+        <v>8.1255579629910979E-2</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <f>'Table MV-1'!$P53/'Table MV-1'!$P$61</f>
+        <v>8.1255579629910979E-2</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <f>'Table MV-1'!M53/'Table MV-1'!$M$61</f>
+        <v>3.9420566897290392E-2</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -5783,22 +6038,28 @@
         <v>14</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <f>'Table MV-1'!D54/'Table MV-1'!$D$61</f>
+        <v>8.5862978466794693E-3</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <f>'Table MV-1'!G54/'Table MV-1'!$G$61</f>
+        <v>6.3797295296725487E-3</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <f>'Table MV-1'!$P54/'Table MV-1'!$P$61</f>
+        <v>8.9868975731671758E-3</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <f>'Table MV-1'!$P54/'Table MV-1'!$P$61</f>
+        <v>8.9868975731671758E-3</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <f>'Table MV-1'!$P54/'Table MV-1'!$P$61</f>
+        <v>8.9868975731671758E-3</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <f>'Table MV-1'!M54/'Table MV-1'!$M$61</f>
+        <v>1.4880153311543754E-2</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -5806,22 +6067,28 @@
         <v>13</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <f>'Table MV-1'!D55/'Table MV-1'!$D$61</f>
+        <v>1.8396009713198137E-3</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <f>'Table MV-1'!G55/'Table MV-1'!$G$61</f>
+        <v>1.0720648127264725E-3</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <f>'Table MV-1'!$P55/'Table MV-1'!$P$61</f>
+        <v>2.2031925927497274E-3</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <f>'Table MV-1'!$P55/'Table MV-1'!$P$61</f>
+        <v>2.2031925927497274E-3</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <f>'Table MV-1'!$P55/'Table MV-1'!$P$61</f>
+        <v>2.2031925927497274E-3</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <f>'Table MV-1'!M55/'Table MV-1'!$M$61</f>
+        <v>3.4752057482222922E-3</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -5829,22 +6096,28 @@
         <v>12</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <f>'Table MV-1'!D56/'Table MV-1'!$D$61</f>
+        <v>2.9079234091689471E-2</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <f>'Table MV-1'!G56/'Table MV-1'!$G$61</f>
+        <v>3.5235064368599529E-2</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <f>'Table MV-1'!$P56/'Table MV-1'!$P$61</f>
+        <v>2.7568275022629669E-2</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <f>'Table MV-1'!$P56/'Table MV-1'!$P$61</f>
+        <v>2.7568275022629669E-2</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <f>'Table MV-1'!$P56/'Table MV-1'!$P$61</f>
+        <v>2.7568275022629669E-2</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <f>'Table MV-1'!M56/'Table MV-1'!$M$61</f>
+        <v>2.2146721837048848E-2</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -5852,22 +6125,28 @@
         <v>11</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <f>'Table MV-1'!D57/'Table MV-1'!$D$61</f>
+        <v>2.6635868257378827E-2</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <f>'Table MV-1'!G57/'Table MV-1'!$G$61</f>
+        <v>2.4016636379262549E-2</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <f>'Table MV-1'!$P57/'Table MV-1'!$P$61</f>
+        <v>2.6303199799000584E-2</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <f>'Table MV-1'!$P57/'Table MV-1'!$P$61</f>
+        <v>2.6303199799000584E-2</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <f>'Table MV-1'!$P57/'Table MV-1'!$P$61</f>
+        <v>2.6303199799000584E-2</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <f>'Table MV-1'!M57/'Table MV-1'!$M$61</f>
+        <v>2.6590331094337991E-2</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -5875,22 +6154,28 @@
         <v>10</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <f>'Table MV-1'!D58/'Table MV-1'!$D$61</f>
+        <v>4.8381751894939189E-3</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <f>'Table MV-1'!G58/'Table MV-1'!$G$61</f>
+        <v>3.1347214867025212E-3</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <f>'Table MV-1'!$P58/'Table MV-1'!$P$61</f>
+        <v>6.0068230796770363E-3</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <f>'Table MV-1'!$P58/'Table MV-1'!$P$61</f>
+        <v>6.0068230796770363E-3</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <f>'Table MV-1'!$P58/'Table MV-1'!$P$61</f>
+        <v>6.0068230796770363E-3</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <f>'Table MV-1'!M58/'Table MV-1'!$M$61</f>
+        <v>5.2267373026870347E-3</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -5898,22 +6183,28 @@
         <v>9</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <f>'Table MV-1'!D59/'Table MV-1'!$D$61</f>
+        <v>1.8086189890550556E-2</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <f>'Table MV-1'!G59/'Table MV-1'!$G$61</f>
+        <v>1.4844967902637837E-2</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <f>'Table MV-1'!$P59/'Table MV-1'!$P$61</f>
+        <v>2.035520680727616E-2</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <f>'Table MV-1'!$P59/'Table MV-1'!$P$61</f>
+        <v>2.035520680727616E-2</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <f>'Table MV-1'!$P59/'Table MV-1'!$P$61</f>
+        <v>2.035520680727616E-2</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <f>'Table MV-1'!M59/'Table MV-1'!$M$61</f>
+        <v>3.3177876452605261E-2</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -5921,22 +6212,28 @@
         <v>8</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <f>'Table MV-1'!D60/'Table MV-1'!$D$61</f>
+        <v>1.8198644984129973E-3</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <f>'Table MV-1'!G60/'Table MV-1'!$G$61</f>
+        <v>4.0746411464237849E-3</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <f>'Table MV-1'!$P60/'Table MV-1'!$P$61</f>
+        <v>3.1206476693976084E-3</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <f>'Table MV-1'!$P60/'Table MV-1'!$P$61</f>
+        <v>3.1206476693976084E-3</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <f>'Table MV-1'!$P60/'Table MV-1'!$P$61</f>
+        <v>3.1206476693976084E-3</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <f>'Table MV-1'!M60/'Table MV-1'!$M$61</f>
+        <v>3.420691775114251E-3</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -6159,14 +6456,14 @@
   </sheetPr>
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="7" width="13.6640625" customWidth="1"/>
+    <col min="2" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6197,22 +6494,27 @@
         <v>58</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <f>C2</f>
+        <v>1.9600927701391289E-2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <f>'Table MV-1'!J10/'Table MV-1'!$J$61</f>
+        <v>1.9600927701391289E-2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <f>'Table MV-1'!$P10/'Table MV-1'!$P$61</f>
+        <v>1.9282655873447636E-2</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <f>'Table MV-1'!$P10/'Table MV-1'!$P$61</f>
+        <v>1.9282655873447636E-2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <f>'Table MV-1'!$P10/'Table MV-1'!$P$61</f>
+        <v>1.9282655873447636E-2</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6220,19 +6522,24 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <f t="shared" ref="B3:B52" si="0">C3</f>
+        <v>3.6314972397001131E-3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <f>'Table MV-1'!J11/'Table MV-1'!$J$61</f>
+        <v>3.6314972397001131E-3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <f>'Table MV-1'!$P11/'Table MV-1'!$P$61</f>
+        <v>2.8734612685508815E-3</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <f>'Table MV-1'!$P11/'Table MV-1'!$P$61</f>
+        <v>2.8734612685508815E-3</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <f>'Table MV-1'!$P11/'Table MV-1'!$P$61</f>
+        <v>2.8734612685508815E-3</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -6243,19 +6550,24 @@
         <v>56</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.1767409304149131E-2</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <f>'Table MV-1'!J12/'Table MV-1'!$J$61</f>
+        <v>2.1767409304149131E-2</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <f>'Table MV-1'!$P12/'Table MV-1'!$P$61</f>
+        <v>2.194088643887716E-2</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <f>'Table MV-1'!$P12/'Table MV-1'!$P$61</f>
+        <v>2.194088643887716E-2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <f>'Table MV-1'!$P12/'Table MV-1'!$P$61</f>
+        <v>2.194088643887716E-2</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -6266,19 +6578,24 @@
         <v>55</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.1515440266444459E-2</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <f>'Table MV-1'!J13/'Table MV-1'!$J$61</f>
+        <v>1.1515440266444459E-2</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <f>'Table MV-1'!$P13/'Table MV-1'!$P$61</f>
+        <v>1.0559004097364129E-2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <f>'Table MV-1'!$P13/'Table MV-1'!$P$61</f>
+        <v>1.0559004097364129E-2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <f>'Table MV-1'!$P13/'Table MV-1'!$P$61</f>
+        <v>1.0559004097364129E-2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -6289,19 +6606,24 @@
         <v>54</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9.483573703336938E-2</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <f>'Table MV-1'!J14/'Table MV-1'!$J$61</f>
+        <v>9.483573703336938E-2</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <f>'Table MV-1'!$P14/'Table MV-1'!$P$61</f>
+        <v>0.1101732172422014</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <f>'Table MV-1'!$P14/'Table MV-1'!$P$61</f>
+        <v>0.1101732172422014</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <f>'Table MV-1'!$P14/'Table MV-1'!$P$61</f>
+        <v>0.1101732172422014</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6312,19 +6634,24 @@
         <v>53</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.17963420575671E-2</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <f>'Table MV-1'!J15/'Table MV-1'!$J$61</f>
+        <v>2.17963420575671E-2</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <f>'Table MV-1'!$P15/'Table MV-1'!$P$61</f>
+        <v>1.9392719458399887E-2</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <f>'Table MV-1'!$P15/'Table MV-1'!$P$61</f>
+        <v>1.9392719458399887E-2</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <f>'Table MV-1'!$P15/'Table MV-1'!$P$61</f>
+        <v>1.9392719458399887E-2</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -6335,19 +6662,24 @@
         <v>52</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9.6855101995915252E-3</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <f>'Table MV-1'!J16/'Table MV-1'!$J$61</f>
+        <v>9.6855101995915252E-3</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <f>'Table MV-1'!$P16/'Table MV-1'!$P$61</f>
+        <v>1.0392955521738887E-2</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <f>'Table MV-1'!$P16/'Table MV-1'!$P$61</f>
+        <v>1.0392955521738887E-2</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <f>'Table MV-1'!$P16/'Table MV-1'!$P$61</f>
+        <v>1.0392955521738887E-2</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6358,19 +6690,24 @@
         <v>51</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.607073808587494E-3</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <f>'Table MV-1'!J17/'Table MV-1'!$J$61</f>
+        <v>3.607073808587494E-3</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <f>'Table MV-1'!$P17/'Table MV-1'!$P$61</f>
+        <v>3.6465629954535311E-3</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <f>'Table MV-1'!$P17/'Table MV-1'!$P$61</f>
+        <v>3.6465629954535311E-3</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <f>'Table MV-1'!$P17/'Table MV-1'!$P$61</f>
+        <v>3.6465629954535311E-3</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -6381,19 +6718,24 @@
         <v>84</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>8.5193982126037439E-4</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <f>'Table MV-1'!J18/'Table MV-1'!$J$61</f>
+        <v>8.5193982126037439E-4</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <f>'Table MV-1'!$P18/'Table MV-1'!$P$61</f>
+        <v>1.2922069411262062E-3</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <f>'Table MV-1'!$P18/'Table MV-1'!$P$61</f>
+        <v>1.2922069411262062E-3</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <f>'Table MV-1'!$P18/'Table MV-1'!$P$61</f>
+        <v>1.2922069411262062E-3</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -6404,19 +6746,24 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6.1586335732623156E-2</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <f>'Table MV-1'!J19/'Table MV-1'!$J$61</f>
+        <v>6.1586335732623156E-2</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <f>'Table MV-1'!$P19/'Table MV-1'!$P$61</f>
+        <v>6.6921421388709962E-2</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <f>'Table MV-1'!$P19/'Table MV-1'!$P$61</f>
+        <v>6.6921421388709962E-2</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <f>'Table MV-1'!$P19/'Table MV-1'!$P$61</f>
+        <v>6.6921421388709962E-2</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -6427,19 +6774,24 @@
         <v>48</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.1525712849526988E-2</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <f>'Table MV-1'!J20/'Table MV-1'!$J$61</f>
+        <v>3.1525712849526988E-2</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <f>'Table MV-1'!$P20/'Table MV-1'!$P$61</f>
+        <v>3.2001349757641386E-2</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <f>'Table MV-1'!$P20/'Table MV-1'!$P$61</f>
+        <v>3.2001349757641386E-2</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <f>'Table MV-1'!$P20/'Table MV-1'!$P$61</f>
+        <v>3.2001349757641386E-2</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -6450,19 +6802,24 @@
         <v>47</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.5222742187277015E-3</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <f>'Table MV-1'!J21/'Table MV-1'!$J$61</f>
+        <v>4.5222742187277015E-3</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <f>'Table MV-1'!$P21/'Table MV-1'!$P$61</f>
+        <v>4.5120524608973367E-3</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <f>'Table MV-1'!$P21/'Table MV-1'!$P$61</f>
+        <v>4.5120524608973367E-3</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <f>'Table MV-1'!$P21/'Table MV-1'!$P$61</f>
+        <v>4.5120524608973367E-3</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -6473,19 +6830,24 @@
         <v>46</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.8435139790973586E-3</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <f>'Table MV-1'!J22/'Table MV-1'!$J$61</f>
+        <v>7.8435139790973586E-3</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <f>'Table MV-1'!$P22/'Table MV-1'!$P$61</f>
+        <v>6.9502899565489131E-3</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <f>'Table MV-1'!$P22/'Table MV-1'!$P$61</f>
+        <v>6.9502899565489131E-3</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <f>'Table MV-1'!$P22/'Table MV-1'!$P$61</f>
+        <v>6.9502899565489131E-3</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -6496,19 +6858,24 @@
         <v>45</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.7864302450454933E-2</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <f>'Table MV-1'!J23/'Table MV-1'!$J$61</f>
+        <v>3.7864302450454933E-2</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <f>'Table MV-1'!$P23/'Table MV-1'!$P$61</f>
+        <v>3.837338547117259E-2</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <f>'Table MV-1'!$P23/'Table MV-1'!$P$61</f>
+        <v>3.837338547117259E-2</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <f>'Table MV-1'!$P23/'Table MV-1'!$P$61</f>
+        <v>3.837338547117259E-2</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -6519,19 +6886,24 @@
         <v>44</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.3819250059067168E-2</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <f>'Table MV-1'!J24/'Table MV-1'!$J$61</f>
+        <v>2.3819250059067168E-2</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <f>'Table MV-1'!$P24/'Table MV-1'!$P$61</f>
+        <v>2.2470473208938503E-2</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <f>'Table MV-1'!$P24/'Table MV-1'!$P$61</f>
+        <v>2.2470473208938503E-2</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <f>'Table MV-1'!$P24/'Table MV-1'!$P$61</f>
+        <v>2.2470473208938503E-2</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -6542,19 +6914,24 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.5005240724472678E-2</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <f>'Table MV-1'!J25/'Table MV-1'!$J$61</f>
+        <v>1.5005240724472678E-2</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <f>'Table MV-1'!$P25/'Table MV-1'!$P$61</f>
+        <v>1.3726141018743511E-2</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <f>'Table MV-1'!$P25/'Table MV-1'!$P$61</f>
+        <v>1.3726141018743511E-2</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <f>'Table MV-1'!$P25/'Table MV-1'!$P$61</f>
+        <v>1.3726141018743511E-2</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -6565,19 +6942,24 @@
         <v>42</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.0017236512864749E-2</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <f>'Table MV-1'!J26/'Table MV-1'!$J$61</f>
+        <v>1.0017236512864749E-2</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <f>'Table MV-1'!$P26/'Table MV-1'!$P$61</f>
+        <v>9.4360931295224514E-3</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <f>'Table MV-1'!$P26/'Table MV-1'!$P$61</f>
+        <v>9.4360931295224514E-3</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <f>'Table MV-1'!$P26/'Table MV-1'!$P$61</f>
+        <v>9.4360931295224514E-3</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -6588,19 +6970,24 @@
         <v>41</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.6767766333459132E-2</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <f>'Table MV-1'!J27/'Table MV-1'!$J$61</f>
+        <v>1.6767766333459132E-2</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <f>'Table MV-1'!$P27/'Table MV-1'!$P$61</f>
+        <v>1.6163360078298817E-2</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <f>'Table MV-1'!$P27/'Table MV-1'!$P$61</f>
+        <v>1.6163360078298817E-2</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <f>'Table MV-1'!$P27/'Table MV-1'!$P$61</f>
+        <v>1.6163360078298817E-2</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -6611,19 +6998,24 @@
         <v>40</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.4952243799136747E-2</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <f>'Table MV-1'!J28/'Table MV-1'!$J$61</f>
+        <v>1.4952243799136747E-2</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <f>'Table MV-1'!$P28/'Table MV-1'!$P$61</f>
+        <v>1.3994268785299344E-2</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <f>'Table MV-1'!$P28/'Table MV-1'!$P$61</f>
+        <v>1.3994268785299344E-2</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <f>'Table MV-1'!$P28/'Table MV-1'!$P$61</f>
+        <v>1.3994268785299344E-2</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -6634,19 +7026,24 @@
         <v>39</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.472553985012004E-3</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <f>'Table MV-1'!J29/'Table MV-1'!$J$61</f>
+        <v>4.472553985012004E-3</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <f>'Table MV-1'!$P29/'Table MV-1'!$P$61</f>
+        <v>4.0632555805939817E-3</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <f>'Table MV-1'!$P29/'Table MV-1'!$P$61</f>
+        <v>4.0632555805939817E-3</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <f>'Table MV-1'!$P29/'Table MV-1'!$P$61</f>
+        <v>4.0632555805939817E-3</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -6657,19 +7054,24 @@
         <v>38</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.3953713838208291E-2</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <f>'Table MV-1'!J30/'Table MV-1'!$J$61</f>
+        <v>1.3953713838208291E-2</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <f>'Table MV-1'!$P30/'Table MV-1'!$P$61</f>
+        <v>1.5263410504658027E-2</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <f>'Table MV-1'!$P30/'Table MV-1'!$P$61</f>
+        <v>1.5263410504658027E-2</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <f>'Table MV-1'!$P30/'Table MV-1'!$P$61</f>
+        <v>1.5263410504658027E-2</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -6680,19 +7082,24 @@
         <v>83</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.7847984402303698E-2</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <f>'Table MV-1'!J31/'Table MV-1'!$J$61</f>
+        <v>1.7847984402303698E-2</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <f>'Table MV-1'!$P31/'Table MV-1'!$P$61</f>
+        <v>1.8254600811341285E-2</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <f>'Table MV-1'!$P31/'Table MV-1'!$P$61</f>
+        <v>1.8254600811341285E-2</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <f>'Table MV-1'!$P31/'Table MV-1'!$P$61</f>
+        <v>1.8254600811341285E-2</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -6703,19 +7110,24 @@
         <v>36</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.4161287854521931E-2</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <f>'Table MV-1'!J32/'Table MV-1'!$J$61</f>
+        <v>3.4161287854521931E-2</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <f>'Table MV-1'!$P32/'Table MV-1'!$P$61</f>
+        <v>3.0637308640614442E-2</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <f>'Table MV-1'!$P32/'Table MV-1'!$P$61</f>
+        <v>3.0637308640614442E-2</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <f>'Table MV-1'!$P32/'Table MV-1'!$P$61</f>
+        <v>3.0637308640614442E-2</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -6726,19 +7138,24 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.221147844524117E-2</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <f>'Table MV-1'!J33/'Table MV-1'!$J$61</f>
+        <v>2.221147844524117E-2</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <f>'Table MV-1'!$P33/'Table MV-1'!$P$61</f>
+        <v>2.0625139489048872E-2</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <f>'Table MV-1'!$P33/'Table MV-1'!$P$61</f>
+        <v>2.0625139489048872E-2</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <f>'Table MV-1'!$P33/'Table MV-1'!$P$61</f>
+        <v>2.0625139489048872E-2</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -6749,19 +7166,24 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.63482155174601E-3</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <f>'Table MV-1'!J34/'Table MV-1'!$J$61</f>
+        <v>7.63482155174601E-3</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <f>'Table MV-1'!$P34/'Table MV-1'!$P$61</f>
+        <v>7.462400218225123E-3</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <f>'Table MV-1'!$P34/'Table MV-1'!$P$61</f>
+        <v>7.462400218225123E-3</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <f>'Table MV-1'!$P34/'Table MV-1'!$P$61</f>
+        <v>7.462400218225123E-3</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -6772,19 +7194,24 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.1277992980917738E-2</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <f>'Table MV-1'!J35/'Table MV-1'!$J$61</f>
+        <v>2.1277992980917738E-2</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <f>'Table MV-1'!$P35/'Table MV-1'!$P$61</f>
+        <v>2.024919884507027E-2</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <f>'Table MV-1'!$P35/'Table MV-1'!$P$61</f>
+        <v>2.024919884507027E-2</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <f>'Table MV-1'!$P35/'Table MV-1'!$P$61</f>
+        <v>2.024919884507027E-2</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -6795,19 +7222,24 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.0185743445526595E-3</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <f>'Table MV-1'!J36/'Table MV-1'!$J$61</f>
+        <v>7.0185743445526595E-3</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <f>'Table MV-1'!$P36/'Table MV-1'!$P$61</f>
+        <v>7.0766920109744495E-3</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <f>'Table MV-1'!$P36/'Table MV-1'!$P$61</f>
+        <v>7.0766920109744495E-3</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <f>'Table MV-1'!$P36/'Table MV-1'!$P$61</f>
+        <v>7.0766920109744495E-3</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -6818,19 +7250,24 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.6979830346411097E-3</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <f>'Table MV-1'!J37/'Table MV-1'!$J$61</f>
+        <v>7.6979830346411097E-3</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <f>'Table MV-1'!$P37/'Table MV-1'!$P$61</f>
+        <v>7.0143680710759082E-3</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <f>'Table MV-1'!$P37/'Table MV-1'!$P$61</f>
+        <v>7.0143680710759082E-3</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <f>'Table MV-1'!$P37/'Table MV-1'!$P$61</f>
+        <v>7.0143680710759082E-3</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -6841,19 +7278,24 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>8.9770758442244206E-3</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <f>'Table MV-1'!J38/'Table MV-1'!$J$61</f>
+        <v>8.9770758442244206E-3</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <f>'Table MV-1'!$P38/'Table MV-1'!$P$61</f>
+        <v>9.2397053063459945E-3</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <f>'Table MV-1'!$P38/'Table MV-1'!$P$61</f>
+        <v>9.2397053063459945E-3</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <f>'Table MV-1'!$P38/'Table MV-1'!$P$61</f>
+        <v>9.2397053063459945E-3</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -6864,19 +7306,24 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5.0478518381385203E-3</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <f>'Table MV-1'!J39/'Table MV-1'!$J$61</f>
+        <v>5.0478518381385203E-3</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <f>'Table MV-1'!$P39/'Table MV-1'!$P$61</f>
+        <v>4.9201517649550101E-3</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <f>'Table MV-1'!$P39/'Table MV-1'!$P$61</f>
+        <v>4.9201517649550101E-3</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <f>'Table MV-1'!$P39/'Table MV-1'!$P$61</f>
+        <v>4.9201517649550101E-3</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -6887,19 +7334,24 @@
         <v>28</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.0550771847319699E-2</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <f>'Table MV-1'!J40/'Table MV-1'!$J$61</f>
+        <v>2.0550771847319699E-2</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <f>'Table MV-1'!$P40/'Table MV-1'!$P$61</f>
+        <v>2.1768607643858712E-2</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <f>'Table MV-1'!$P40/'Table MV-1'!$P$61</f>
+        <v>2.1768607643858712E-2</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <f>'Table MV-1'!$P40/'Table MV-1'!$P$61</f>
+        <v>2.1768607643858712E-2</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -6910,19 +7362,24 @@
         <v>27</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6.7792148090505171E-3</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <f>'Table MV-1'!J41/'Table MV-1'!$J$61</f>
+        <v>6.7792148090505171E-3</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <f>'Table MV-1'!$P41/'Table MV-1'!$P$61</f>
+        <v>6.4627236423600801E-3</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <f>'Table MV-1'!$P41/'Table MV-1'!$P$61</f>
+        <v>6.4627236423600801E-3</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <f>'Table MV-1'!$P41/'Table MV-1'!$P$61</f>
+        <v>6.4627236423600801E-3</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -6933,19 +7390,24 @@
         <v>26</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.1040438660927506E-2</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <f>'Table MV-1'!J42/'Table MV-1'!$J$61</f>
+        <v>4.1040438660927506E-2</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <f>'Table MV-1'!$P42/'Table MV-1'!$P$61</f>
+        <v>4.1044623748877983E-2</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <f>'Table MV-1'!$P42/'Table MV-1'!$P$61</f>
+        <v>4.1044623748877983E-2</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <f>'Table MV-1'!$P42/'Table MV-1'!$P$61</f>
+        <v>4.1044623748877983E-2</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -6956,19 +7418,24 @@
         <v>25</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.1700275653385936E-2</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <f>'Table MV-1'!J43/'Table MV-1'!$J$61</f>
+        <v>3.1700275653385936E-2</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <f>'Table MV-1'!$P43/'Table MV-1'!$P$61</f>
+        <v>3.167401497304749E-2</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <f>'Table MV-1'!$P43/'Table MV-1'!$P$61</f>
+        <v>3.167401497304749E-2</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <f>'Table MV-1'!$P43/'Table MV-1'!$P$61</f>
+        <v>3.167401497304749E-2</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -6979,19 +7446,24 @@
         <v>24</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.986117035446643E-3</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <f>'Table MV-1'!J44/'Table MV-1'!$J$61</f>
+        <v>3.986117035446643E-3</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <f>'Table MV-1'!$P44/'Table MV-1'!$P$61</f>
+        <v>3.2585714617236724E-3</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <f>'Table MV-1'!$P44/'Table MV-1'!$P$61</f>
+        <v>3.2585714617236724E-3</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <f>'Table MV-1'!$P44/'Table MV-1'!$P$61</f>
+        <v>3.2585714617236724E-3</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -7002,19 +7474,24 @@
         <v>23</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.6683925395789657E-2</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <f>'Table MV-1'!J45/'Table MV-1'!$J$61</f>
+        <v>3.6683925395789657E-2</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <f>'Table MV-1'!$P45/'Table MV-1'!$P$61</f>
+        <v>3.8390028384176433E-2</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <f>'Table MV-1'!$P45/'Table MV-1'!$P$61</f>
+        <v>3.8390028384176433E-2</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <f>'Table MV-1'!$P45/'Table MV-1'!$P$61</f>
+        <v>3.8390028384176433E-2</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -7025,19 +7502,24 @@
         <v>22</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.4677986568760525E-2</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <f>'Table MV-1'!J46/'Table MV-1'!$J$61</f>
+        <v>1.4677986568760525E-2</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <f>'Table MV-1'!$P46/'Table MV-1'!$P$61</f>
+        <v>1.3519637696831486E-2</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <f>'Table MV-1'!$P46/'Table MV-1'!$P$61</f>
+        <v>1.3519637696831486E-2</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <f>'Table MV-1'!$P46/'Table MV-1'!$P$61</f>
+        <v>1.3519637696831486E-2</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -7048,19 +7530,24 @@
         <v>21</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.5566676127984676E-2</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <f>'Table MV-1'!J47/'Table MV-1'!$J$61</f>
+        <v>1.5566676127984676E-2</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <f>'Table MV-1'!$P47/'Table MV-1'!$P$61</f>
+        <v>1.4843224067571648E-2</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <f>'Table MV-1'!$P47/'Table MV-1'!$P$61</f>
+        <v>1.4843224067571648E-2</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <f>'Table MV-1'!$P47/'Table MV-1'!$P$61</f>
+        <v>1.4843224067571648E-2</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -7071,19 +7558,24 @@
         <v>20</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.8593803021701831E-2</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <f>'Table MV-1'!J48/'Table MV-1'!$J$61</f>
+        <v>3.8593803021701831E-2</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <f>'Table MV-1'!$P48/'Table MV-1'!$P$61</f>
+        <v>3.8744741340554098E-2</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <f>'Table MV-1'!$P48/'Table MV-1'!$P$61</f>
+        <v>3.8744741340554098E-2</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <f>'Table MV-1'!$P48/'Table MV-1'!$P$61</f>
+        <v>3.8744741340554098E-2</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -7094,19 +7586,24 @@
         <v>19</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.8426879307146095E-3</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <f>'Table MV-1'!J49/'Table MV-1'!$J$61</f>
+        <v>2.8426879307146095E-3</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <f>'Table MV-1'!$P49/'Table MV-1'!$P$61</f>
+        <v>3.1409330317849157E-3</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <f>'Table MV-1'!$P49/'Table MV-1'!$P$61</f>
+        <v>3.1409330317849157E-3</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <f>'Table MV-1'!$P49/'Table MV-1'!$P$61</f>
+        <v>3.1409330317849157E-3</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -7117,19 +7614,24 @@
         <v>18</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.6494772704388254E-2</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <f>'Table MV-1'!J50/'Table MV-1'!$J$61</f>
+        <v>1.6494772704388254E-2</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <f>'Table MV-1'!$P50/'Table MV-1'!$P$61</f>
+        <v>1.6531642517752781E-2</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <f>'Table MV-1'!$P50/'Table MV-1'!$P$61</f>
+        <v>1.6531642517752781E-2</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <f>'Table MV-1'!$P50/'Table MV-1'!$P$61</f>
+        <v>1.6531642517752781E-2</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -7140,19 +7642,24 @@
         <v>17</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5.1835093488657516E-3</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <f>'Table MV-1'!J51/'Table MV-1'!$J$61</f>
+        <v>5.1835093488657516E-3</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <f>'Table MV-1'!$P51/'Table MV-1'!$P$61</f>
+        <v>4.6909021621169989E-3</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <f>'Table MV-1'!$P51/'Table MV-1'!$P$61</f>
+        <v>4.6909021621169989E-3</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <f>'Table MV-1'!$P51/'Table MV-1'!$P$61</f>
+        <v>4.6909021621169989E-3</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -7163,19 +7670,24 @@
         <v>16</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.1883288976798098E-2</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <f>'Table MV-1'!J52/'Table MV-1'!$J$61</f>
+        <v>2.1883288976798098E-2</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <f>'Table MV-1'!$P52/'Table MV-1'!$P$61</f>
+        <v>2.1221790819698876E-2</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <f>'Table MV-1'!$P52/'Table MV-1'!$P$61</f>
+        <v>2.1221790819698876E-2</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <f>'Table MV-1'!$P52/'Table MV-1'!$P$61</f>
+        <v>2.1221790819698876E-2</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -7186,19 +7698,24 @@
         <v>15</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>8.6297781225124395E-2</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <f>'Table MV-1'!J53/'Table MV-1'!$J$61</f>
+        <v>8.6297781225124395E-2</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <f>'Table MV-1'!$P53/'Table MV-1'!$P$61</f>
+        <v>8.1255579629910979E-2</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <f>'Table MV-1'!$P53/'Table MV-1'!$P$61</f>
+        <v>8.1255579629910979E-2</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <f>'Table MV-1'!$P53/'Table MV-1'!$P$61</f>
+        <v>8.1255579629910979E-2</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -7209,19 +7726,24 @@
         <v>14</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>8.9600234207263124E-3</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <f>'Table MV-1'!J54/'Table MV-1'!$J$61</f>
+        <v>8.9600234207263124E-3</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <f>'Table MV-1'!$P54/'Table MV-1'!$P$61</f>
+        <v>8.9868975731671758E-3</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <f>'Table MV-1'!$P54/'Table MV-1'!$P$61</f>
+        <v>8.9868975731671758E-3</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <f>'Table MV-1'!$P54/'Table MV-1'!$P$61</f>
+        <v>8.9868975731671758E-3</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -7232,19 +7754,24 @@
         <v>13</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.3814053188992734E-3</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <f>'Table MV-1'!J55/'Table MV-1'!$J$61</f>
+        <v>2.3814053188992734E-3</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <f>'Table MV-1'!$P55/'Table MV-1'!$P$61</f>
+        <v>2.2031925927497274E-3</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <f>'Table MV-1'!$P55/'Table MV-1'!$P$61</f>
+        <v>2.2031925927497274E-3</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <f>'Table MV-1'!$P55/'Table MV-1'!$P$61</f>
+        <v>2.2031925927497274E-3</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -7255,19 +7782,24 @@
         <v>12</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.6816184066770478E-2</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <f>'Table MV-1'!J56/'Table MV-1'!$J$61</f>
+        <v>2.6816184066770478E-2</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <f>'Table MV-1'!$P56/'Table MV-1'!$P$61</f>
+        <v>2.7568275022629669E-2</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <f>'Table MV-1'!$P56/'Table MV-1'!$P$61</f>
+        <v>2.7568275022629669E-2</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <f>'Table MV-1'!$P56/'Table MV-1'!$P$61</f>
+        <v>2.7568275022629669E-2</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -7278,19 +7810,24 @@
         <v>11</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.6086002141878541E-2</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <f>'Table MV-1'!J57/'Table MV-1'!$J$61</f>
+        <v>2.6086002141878541E-2</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <f>'Table MV-1'!$P57/'Table MV-1'!$P$61</f>
+        <v>2.6303199799000584E-2</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <f>'Table MV-1'!$P57/'Table MV-1'!$P$61</f>
+        <v>2.6303199799000584E-2</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <f>'Table MV-1'!$P57/'Table MV-1'!$P$61</f>
+        <v>2.6303199799000584E-2</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -7301,19 +7838,24 @@
         <v>10</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6.8260176103406393E-3</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <f>'Table MV-1'!J58/'Table MV-1'!$J$61</f>
+        <v>6.8260176103406393E-3</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <f>'Table MV-1'!$P58/'Table MV-1'!$P$61</f>
+        <v>6.0068230796770363E-3</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <f>'Table MV-1'!$P58/'Table MV-1'!$P$61</f>
+        <v>6.0068230796770363E-3</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <f>'Table MV-1'!$P58/'Table MV-1'!$P$61</f>
+        <v>6.0068230796770363E-3</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -7324,19 +7866,24 @@
         <v>9</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.1205726135675299E-2</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <f>'Table MV-1'!J59/'Table MV-1'!$J$61</f>
+        <v>2.1205726135675299E-2</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <f>'Table MV-1'!$P59/'Table MV-1'!$P$61</f>
+        <v>2.035520680727616E-2</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <f>'Table MV-1'!$P59/'Table MV-1'!$P$61</f>
+        <v>2.035520680727616E-2</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <f>'Table MV-1'!$P59/'Table MV-1'!$P$61</f>
+        <v>2.035520680727616E-2</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -7347,19 +7894,24 @@
         <v>8</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.9463197884523288E-3</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <f>'Table MV-1'!J60/'Table MV-1'!$J$61</f>
+        <v>3.9463197884523288E-3</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <f>'Table MV-1'!$P60/'Table MV-1'!$P$61</f>
+        <v>3.1206476693976084E-3</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <f>'Table MV-1'!$P60/'Table MV-1'!$P$61</f>
+        <v>3.1206476693976084E-3</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <f>'Table MV-1'!$P60/'Table MV-1'!$P$61</f>
+        <v>3.1206476693976084E-3</v>
       </c>
       <c r="G52">
         <v>0</v>

--- a/InputData/trans/VSbS/Vehicle Shares by Subregion.xlsx
+++ b/InputData/trans/VSbS/Vehicle Shares by Subregion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\VSbS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/NV/trans/VSbS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E91793-1818-4D44-889A-A4ABF3FC1BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B783EC85-542A-5C40-A3C6-6F202D4D9F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{F34BB550-7D2B-439D-9C81-D72ED5B29ABD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="13840" windowHeight="12640" firstSheet="1" activeTab="3" xr2:uid="{F34BB550-7D2B-439D-9C81-D72ED5B29ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="109">
   <si>
     <t>VSbS Vehicle Shares by Subregion</t>
   </si>
@@ -380,6 +379,9 @@
   </si>
   <si>
     <t>U.S. Data Notes</t>
+  </si>
+  <si>
+    <t>Nevada</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1077,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="37" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -1246,6 +1248,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1627,21 +1630,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B0F8C0-DE1A-4000-9351-A11EE8CD5BC4}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="70.140625" customWidth="1"/>
+    <col min="2" max="2" width="70.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="104">
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1649,51 +1658,51 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="B4" s="3">
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" s="102" t="s">
         <v>107</v>
       </c>
       <c r="B13" s="103"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>87</v>
       </c>
@@ -1756,32 +1765,32 @@
       <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="8.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="10"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="4" customWidth="1"/>
-    <col min="2" max="16" width="9.85546875" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
+    <col min="2" max="16" width="9.83203125" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15">
-      <c r="A1" s="105" t="s">
+    <row r="1" spans="1:16" ht="14">
+      <c r="A1" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="98"/>
@@ -1801,7 +1810,7 @@
       <c r="O2" s="96"/>
       <c r="P2" s="96"/>
     </row>
-    <row r="3" spans="1:16" ht="9">
+    <row r="3" spans="1:16" ht="11">
       <c r="A3" s="97" t="s">
         <v>75</v>
       </c>
@@ -1825,53 +1834,53 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="94"/>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="108"/>
-    </row>
-    <row r="5" spans="1:16" ht="9">
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="109"/>
+    </row>
+    <row r="5" spans="1:16" ht="11">
       <c r="A5" s="79"/>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="111" t="s">
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="110" t="s">
+      <c r="F5" s="111"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="111" t="s">
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="110"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="110" t="s">
+      <c r="L5" s="111"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="O5" s="110"/>
-      <c r="P5" s="113"/>
-    </row>
-    <row r="6" spans="1:16" ht="9">
+      <c r="O5" s="111"/>
+      <c r="P5" s="114"/>
+    </row>
+    <row r="6" spans="1:16" ht="11">
       <c r="A6" s="79" t="s">
         <v>68</v>
       </c>
@@ -1899,7 +1908,7 @@
       <c r="O6" s="88"/>
       <c r="P6" s="87"/>
     </row>
-    <row r="7" spans="1:16" ht="9">
+    <row r="7" spans="1:16" ht="11">
       <c r="A7" s="79"/>
       <c r="B7" s="79" t="s">
         <v>63</v>
@@ -1945,7 +1954,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="9">
+    <row r="8" spans="1:16" ht="11">
       <c r="A8" s="79"/>
       <c r="B8" s="79" t="s">
         <v>65</v>
@@ -1993,7 +2002,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="9">
+    <row r="9" spans="1:16" ht="11">
       <c r="A9" s="74"/>
       <c r="B9" s="74" t="s">
         <v>60</v>
@@ -2033,7 +2042,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="9">
+    <row r="10" spans="1:16" ht="11">
       <c r="A10" s="19" t="s">
         <v>58</v>
       </c>
@@ -2083,7 +2092,7 @@
         <v>5320340</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="9">
+    <row r="11" spans="1:16" ht="11">
       <c r="A11" s="19" t="s">
         <v>57</v>
       </c>
@@ -2133,7 +2142,7 @@
         <v>792826</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="9">
+    <row r="12" spans="1:16" ht="11">
       <c r="A12" s="19" t="s">
         <v>56</v>
       </c>
@@ -2183,7 +2192,7 @@
         <v>6053781</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="9">
+    <row r="13" spans="1:16" ht="11">
       <c r="A13" s="19" t="s">
         <v>55</v>
       </c>
@@ -2233,7 +2242,7 @@
         <v>2913369</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="9">
+    <row r="14" spans="1:16" ht="11">
       <c r="A14" s="52" t="s">
         <v>54</v>
       </c>
@@ -2283,7 +2292,7 @@
         <v>30398249</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="9">
+    <row r="15" spans="1:16" ht="11">
       <c r="A15" s="19" t="s">
         <v>53</v>
       </c>
@@ -2333,7 +2342,7 @@
         <v>5350708</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="9">
+    <row r="16" spans="1:16" ht="11">
       <c r="A16" s="19" t="s">
         <v>52</v>
       </c>
@@ -2383,7 +2392,7 @@
         <v>2867554</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="9">
+    <row r="17" spans="1:16" ht="11">
       <c r="A17" s="43" t="s">
         <v>51</v>
       </c>
@@ -2433,7 +2442,7 @@
         <v>1006135</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="9">
+    <row r="18" spans="1:16" ht="11">
       <c r="A18" s="19" t="s">
         <v>50</v>
       </c>
@@ -2483,7 +2492,7 @@
         <v>356537</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="9">
+    <row r="19" spans="1:16" ht="11">
       <c r="A19" s="19" t="s">
         <v>49</v>
       </c>
@@ -2533,7 +2542,7 @@
         <v>18464506</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="9">
+    <row r="20" spans="1:16" ht="11">
       <c r="A20" s="19" t="s">
         <v>48</v>
       </c>
@@ -2583,7 +2592,7 @@
         <v>8829596</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="9">
+    <row r="21" spans="1:16" ht="11">
       <c r="A21" s="19" t="s">
         <v>47</v>
       </c>
@@ -2633,7 +2642,7 @@
         <v>1244935</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="9">
+    <row r="22" spans="1:16" ht="11">
       <c r="A22" s="52" t="s">
         <v>46</v>
       </c>
@@ -2683,7 +2692,7 @@
         <v>1917677</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="9">
+    <row r="23" spans="1:16" ht="11">
       <c r="A23" s="19" t="s">
         <v>45</v>
       </c>
@@ -2733,7 +2742,7 @@
         <v>10587725</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="9">
+    <row r="24" spans="1:16" ht="11">
       <c r="A24" s="19" t="s">
         <v>44</v>
       </c>
@@ -2783,7 +2792,7 @@
         <v>6199901</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="9">
+    <row r="25" spans="1:16" ht="11">
       <c r="A25" s="43" t="s">
         <v>43</v>
       </c>
@@ -2833,7 +2842,7 @@
         <v>3787224</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="9">
+    <row r="26" spans="1:16" ht="11">
       <c r="A26" s="19" t="s">
         <v>42</v>
       </c>
@@ -2883,7 +2892,7 @@
         <v>2603543</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="9">
+    <row r="27" spans="1:16" ht="11">
       <c r="A27" s="19" t="s">
         <v>41</v>
       </c>
@@ -2933,7 +2942,7 @@
         <v>4459685</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="9">
+    <row r="28" spans="1:16" ht="11">
       <c r="A28" s="19" t="s">
         <v>40</v>
       </c>
@@ -2983,7 +2992,7 @@
         <v>3861204</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="9">
+    <row r="29" spans="1:16" ht="11">
       <c r="A29" s="19" t="s">
         <v>39</v>
       </c>
@@ -3033,7 +3042,7 @@
         <v>1121106</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="9">
+    <row r="30" spans="1:16" ht="11">
       <c r="A30" s="52" t="s">
         <v>38</v>
       </c>
@@ -3083,7 +3092,7 @@
         <v>4211377</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="9">
+    <row r="31" spans="1:16" ht="11">
       <c r="A31" s="19" t="s">
         <v>37</v>
       </c>
@@ -3133,7 +3142,7 @@
         <v>5036686</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="9">
+    <row r="32" spans="1:16" ht="11">
       <c r="A32" s="19" t="s">
         <v>36</v>
       </c>
@@ -3183,7 +3192,7 @@
         <v>8453239</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="9">
+    <row r="33" spans="1:16" ht="11">
       <c r="A33" s="43" t="s">
         <v>35</v>
       </c>
@@ -3233,7 +3242,7 @@
         <v>5690749</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="9">
+    <row r="34" spans="1:16" ht="11">
       <c r="A34" s="19" t="s">
         <v>34</v>
       </c>
@@ -3283,7 +3292,7 @@
         <v>2058975</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="9">
+    <row r="35" spans="1:16" ht="11">
       <c r="A35" s="19" t="s">
         <v>33</v>
       </c>
@@ -3333,7 +3342,7 @@
         <v>5587022</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="9">
+    <row r="36" spans="1:16" ht="11">
       <c r="A36" s="19" t="s">
         <v>32</v>
       </c>
@@ -3383,7 +3392,7 @@
         <v>1952553</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="9">
+    <row r="37" spans="1:16" ht="11">
       <c r="A37" s="19" t="s">
         <v>31</v>
       </c>
@@ -3433,7 +3442,7 @@
         <v>1935357</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="9">
+    <row r="38" spans="1:16" ht="11">
       <c r="A38" s="52" t="s">
         <v>30</v>
       </c>
@@ -3483,7 +3492,7 @@
         <v>2549357</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="9">
+    <row r="39" spans="1:16" ht="11">
       <c r="A39" s="19" t="s">
         <v>29</v>
       </c>
@@ -3533,7 +3542,7 @@
         <v>1357535</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="9">
+    <row r="40" spans="1:16" ht="11">
       <c r="A40" s="19" t="s">
         <v>28</v>
       </c>
@@ -3583,7 +3592,7 @@
         <v>6006247</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="9">
+    <row r="41" spans="1:16" ht="11">
       <c r="A41" s="43" t="s">
         <v>27</v>
       </c>
@@ -3633,7 +3642,7 @@
         <v>1783151</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="9">
+    <row r="42" spans="1:16" ht="11">
       <c r="A42" s="19" t="s">
         <v>26</v>
       </c>
@@ -3683,7 +3692,7 @@
         <v>11324755</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="9">
+    <row r="43" spans="1:16" ht="11">
       <c r="A43" s="19" t="s">
         <v>25</v>
       </c>
@@ -3733,7 +3742,7 @@
         <v>8739280</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="9">
+    <row r="44" spans="1:16" ht="11">
       <c r="A44" s="19" t="s">
         <v>24</v>
       </c>
@@ -3783,7 +3792,7 @@
         <v>899083</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="9">
+    <row r="45" spans="1:16" ht="11">
       <c r="A45" s="19" t="s">
         <v>23</v>
       </c>
@@ -3833,7 +3842,7 @@
         <v>10592317</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="9">
+    <row r="46" spans="1:16" ht="11">
       <c r="A46" s="52" t="s">
         <v>22</v>
       </c>
@@ -3883,7 +3892,7 @@
         <v>3730247</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="9">
+    <row r="47" spans="1:16" ht="11">
       <c r="A47" s="19" t="s">
         <v>21</v>
       </c>
@@ -3933,7 +3942,7 @@
         <v>4095442</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="9">
+    <row r="48" spans="1:16" ht="11">
       <c r="A48" s="19" t="s">
         <v>20</v>
       </c>
@@ -3983,7 +3992,7 @@
         <v>10690187</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="9">
+    <row r="49" spans="1:16" ht="11">
       <c r="A49" s="43" t="s">
         <v>19</v>
       </c>
@@ -4033,7 +4042,7 @@
         <v>866625</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="9">
+    <row r="50" spans="1:16" ht="11">
       <c r="A50" s="19" t="s">
         <v>18</v>
       </c>
@@ -4083,7 +4092,7 @@
         <v>4561299</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="9">
+    <row r="51" spans="1:16" ht="11">
       <c r="A51" s="19" t="s">
         <v>17</v>
       </c>
@@ -4133,7 +4142,7 @@
         <v>1294282</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="9">
+    <row r="52" spans="1:16" ht="11">
       <c r="A52" s="19" t="s">
         <v>16</v>
       </c>
@@ -4183,7 +4192,7 @@
         <v>5855373</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="9">
+    <row r="53" spans="1:16" ht="11">
       <c r="A53" s="19" t="s">
         <v>15</v>
       </c>
@@ -4233,7 +4242,7 @@
         <v>22419490</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="9">
+    <row r="54" spans="1:16" ht="11">
       <c r="A54" s="52" t="s">
         <v>14</v>
       </c>
@@ -4283,7 +4292,7 @@
         <v>2479604</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="9">
+    <row r="55" spans="1:16" ht="11">
       <c r="A55" s="19" t="s">
         <v>13</v>
       </c>
@@ -4333,7 +4342,7 @@
         <v>607890</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="9">
+    <row r="56" spans="1:16" ht="11">
       <c r="A56" s="19" t="s">
         <v>12</v>
       </c>
@@ -4383,7 +4392,7 @@
         <v>7606452</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="9">
+    <row r="57" spans="1:16" ht="11">
       <c r="A57" s="43" t="s">
         <v>11</v>
       </c>
@@ -4433,7 +4442,7 @@
         <v>7257401</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="9">
+    <row r="58" spans="1:16" ht="11">
       <c r="A58" s="19" t="s">
         <v>10</v>
       </c>
@@ -4483,7 +4492,7 @@
         <v>1657362</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="9">
+    <row r="59" spans="1:16" ht="11">
       <c r="A59" s="19" t="s">
         <v>9</v>
       </c>
@@ -4533,7 +4542,7 @@
         <v>5616271</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="9">
+    <row r="60" spans="1:16" ht="11">
       <c r="A60" s="19" t="s">
         <v>8</v>
       </c>
@@ -4583,7 +4592,7 @@
         <v>861028</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="9">
+    <row r="61" spans="1:16" ht="11">
       <c r="A61" s="11" t="s">
         <v>7</v>
       </c>
@@ -4633,7 +4642,7 @@
         <v>275913237</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="9">
+    <row r="62" spans="1:16" ht="11">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -4651,25 +4660,25 @@
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
     </row>
-    <row r="63" spans="1:16" ht="39.6" customHeight="1">
-      <c r="A63" s="104" t="s">
+    <row r="63" spans="1:16" ht="39.5" customHeight="1">
+      <c r="A63" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="104"/>
-      <c r="C63" s="104"/>
-      <c r="D63" s="104"/>
-      <c r="E63" s="104"/>
-      <c r="F63" s="104"/>
-      <c r="G63" s="104"/>
-      <c r="H63" s="104"/>
-      <c r="I63" s="104"/>
-      <c r="J63" s="104"/>
-      <c r="K63" s="104"/>
-      <c r="L63" s="104"/>
-      <c r="M63" s="104"/>
-      <c r="N63" s="104"/>
-      <c r="O63" s="104"/>
-      <c r="P63" s="104"/>
+      <c r="B63" s="105"/>
+      <c r="C63" s="105"/>
+      <c r="D63" s="105"/>
+      <c r="E63" s="105"/>
+      <c r="F63" s="105"/>
+      <c r="G63" s="105"/>
+      <c r="H63" s="105"/>
+      <c r="I63" s="105"/>
+      <c r="J63" s="105"/>
+      <c r="K63" s="105"/>
+      <c r="L63" s="105"/>
+      <c r="M63" s="105"/>
+      <c r="N63" s="105"/>
+      <c r="O63" s="105"/>
+      <c r="P63" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4724,14 +4733,14 @@
   </sheetPr>
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="7" width="13.7109375" customWidth="1"/>
+    <col min="2" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4762,28 +4771,22 @@
         <v>58</v>
       </c>
       <c r="B2">
-        <f>'Table MV-1'!D10/'Table MV-1'!$D$61</f>
-        <v>1.9359587122498342E-2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <f>'Table MV-1'!G10/'Table MV-1'!$G$61</f>
-        <v>5.5878521842202787E-3</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <f>'Table MV-1'!$P10/'Table MV-1'!$P$61</f>
-        <v>1.9282655873447636E-2</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <f>'Table MV-1'!$P10/'Table MV-1'!$P$61</f>
-        <v>1.9282655873447636E-2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <f>'Table MV-1'!$P10/'Table MV-1'!$P$61</f>
-        <v>1.9282655873447636E-2</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <f>'Table MV-1'!M10/'Table MV-1'!$M$61</f>
-        <v>1.3796718114729099E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4791,28 +4794,22 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <f>'Table MV-1'!D11/'Table MV-1'!$D$61</f>
-        <v>1.6278452622477892E-3</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <f>'Table MV-1'!G11/'Table MV-1'!$G$61</f>
-        <v>8.5645956308639404E-3</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <f>'Table MV-1'!$P11/'Table MV-1'!$P$61</f>
-        <v>2.8734612685508815E-3</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <f>'Table MV-1'!$P11/'Table MV-1'!$P$61</f>
-        <v>2.8734612685508815E-3</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <f>'Table MV-1'!$P11/'Table MV-1'!$P$61</f>
-        <v>2.8734612685508815E-3</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <f>'Table MV-1'!M11/'Table MV-1'!$M$61</f>
-        <v>3.2157240392212427E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4820,28 +4817,22 @@
         <v>56</v>
       </c>
       <c r="B4">
-        <f>'Table MV-1'!D12/'Table MV-1'!$D$61</f>
-        <v>2.2923014439488926E-2</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <f>'Table MV-1'!G12/'Table MV-1'!$G$61</f>
-        <v>8.4314569052797456E-3</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <f>'Table MV-1'!$P12/'Table MV-1'!$P$61</f>
-        <v>2.194088643887716E-2</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <f>'Table MV-1'!$P12/'Table MV-1'!$P$61</f>
-        <v>2.194088643887716E-2</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <f>'Table MV-1'!$P12/'Table MV-1'!$P$61</f>
-        <v>2.194088643887716E-2</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <f>'Table MV-1'!M12/'Table MV-1'!$M$61</f>
-        <v>1.4537940044235568E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4849,28 +4840,22 @@
         <v>55</v>
       </c>
       <c r="B5">
-        <f>'Table MV-1'!D13/'Table MV-1'!$D$61</f>
-        <v>8.298230946218824E-3</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <f>'Table MV-1'!G13/'Table MV-1'!$G$61</f>
-        <v>1.1966588141313841E-2</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <f>'Table MV-1'!$P13/'Table MV-1'!$P$61</f>
-        <v>1.0559004097364129E-2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <f>'Table MV-1'!$P13/'Table MV-1'!$P$61</f>
-        <v>1.0559004097364129E-2</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <f>'Table MV-1'!$P13/'Table MV-1'!$P$61</f>
-        <v>1.0559004097364129E-2</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <f>'Table MV-1'!M13/'Table MV-1'!$M$61</f>
-        <v>2.0388346017237942E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4878,28 +4863,22 @@
         <v>54</v>
       </c>
       <c r="B6">
-        <f>'Table MV-1'!D14/'Table MV-1'!$D$61</f>
-        <v>0.13507737172957132</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <f>'Table MV-1'!G14/'Table MV-1'!$G$61</f>
-        <v>0.10017993599405446</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <f>'Table MV-1'!$P14/'Table MV-1'!$P$61</f>
-        <v>0.1101732172422014</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <f>'Table MV-1'!$P14/'Table MV-1'!$P$61</f>
-        <v>0.1101732172422014</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <f>'Table MV-1'!$P14/'Table MV-1'!$P$61</f>
-        <v>0.1101732172422014</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <f>'Table MV-1'!M14/'Table MV-1'!$M$61</f>
-        <v>9.4309653776233349E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4907,28 +4886,22 @@
         <v>53</v>
       </c>
       <c r="B7">
-        <f>'Table MV-1'!D15/'Table MV-1'!$D$61</f>
-        <v>1.5589702031572649E-2</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <f>'Table MV-1'!G15/'Table MV-1'!$G$61</f>
-        <v>1.3631815783695276E-2</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <f>'Table MV-1'!$P15/'Table MV-1'!$P$61</f>
-        <v>1.9392719458399887E-2</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <f>'Table MV-1'!$P15/'Table MV-1'!$P$61</f>
-        <v>1.9392719458399887E-2</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <f>'Table MV-1'!$P15/'Table MV-1'!$P$61</f>
-        <v>1.9392719458399887E-2</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <f>'Table MV-1'!M15/'Table MV-1'!$M$61</f>
-        <v>2.1503721119001361E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4936,28 +4909,22 @@
         <v>52</v>
       </c>
       <c r="B8">
-        <f>'Table MV-1'!D16/'Table MV-1'!$D$61</f>
-        <v>1.1520117410612801E-2</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <f>'Table MV-1'!G16/'Table MV-1'!$G$61</f>
-        <v>1.169732997240849E-2</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <f>'Table MV-1'!$P16/'Table MV-1'!$P$61</f>
-        <v>1.0392955521738887E-2</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <f>'Table MV-1'!$P16/'Table MV-1'!$P$61</f>
-        <v>1.0392955521738887E-2</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <f>'Table MV-1'!$P16/'Table MV-1'!$P$61</f>
-        <v>1.0392955521738887E-2</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <f>'Table MV-1'!M16/'Table MV-1'!$M$61</f>
-        <v>9.7199374650282049E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4965,28 +4932,22 @@
         <v>51</v>
       </c>
       <c r="B9">
-        <f>'Table MV-1'!D17/'Table MV-1'!$D$61</f>
-        <v>3.955997652548668E-3</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <f>'Table MV-1'!G17/'Table MV-1'!$G$61</f>
-        <v>3.8341965823090428E-3</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <f>'Table MV-1'!$P17/'Table MV-1'!$P$61</f>
-        <v>3.6465629954535311E-3</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <f>'Table MV-1'!$P17/'Table MV-1'!$P$61</f>
-        <v>3.6465629954535311E-3</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <f>'Table MV-1'!$P17/'Table MV-1'!$P$61</f>
-        <v>3.6465629954535311E-3</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <f>'Table MV-1'!M17/'Table MV-1'!$M$61</f>
-        <v>4.8306104364239793E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4994,28 +4955,22 @@
         <v>84</v>
       </c>
       <c r="B10">
-        <f>'Table MV-1'!D18/'Table MV-1'!$D$61</f>
-        <v>2.0002511050046939E-3</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <f>'Table MV-1'!G18/'Table MV-1'!$G$61</f>
-        <v>5.1000080479378894E-3</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <f>'Table MV-1'!$P18/'Table MV-1'!$P$61</f>
-        <v>1.2922069411262062E-3</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <f>'Table MV-1'!$P18/'Table MV-1'!$P$61</f>
-        <v>1.2922069411262062E-3</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <f>'Table MV-1'!$P18/'Table MV-1'!$P$61</f>
-        <v>1.2922069411262062E-3</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <f>'Table MV-1'!M18/'Table MV-1'!$M$61</f>
-        <v>4.2830692087308811E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5023,28 +4978,22 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <f>'Table MV-1'!D19/'Table MV-1'!$D$61</f>
-        <v>7.4585348593669304E-2</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <f>'Table MV-1'!G19/'Table MV-1'!$G$61</f>
-        <v>5.9786242795356839E-2</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <f>'Table MV-1'!$P19/'Table MV-1'!$P$61</f>
-        <v>6.6921421388709962E-2</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <f>'Table MV-1'!$P19/'Table MV-1'!$P$61</f>
-        <v>6.6921421388709962E-2</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <f>'Table MV-1'!$P19/'Table MV-1'!$P$61</f>
-        <v>6.6921421388709962E-2</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <f>'Table MV-1'!M19/'Table MV-1'!$M$61</f>
-        <v>7.4455640755318714E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5052,28 +5001,22 @@
         <v>48</v>
       </c>
       <c r="B12">
-        <f>'Table MV-1'!D20/'Table MV-1'!$D$61</f>
-        <v>3.3246882826224872E-2</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <f>'Table MV-1'!G20/'Table MV-1'!$G$61</f>
-        <v>3.6664815309761158E-2</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <f>'Table MV-1'!$P20/'Table MV-1'!$P$61</f>
-        <v>3.2001349757641386E-2</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <f>'Table MV-1'!$P20/'Table MV-1'!$P$61</f>
-        <v>3.2001349757641386E-2</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <f>'Table MV-1'!$P20/'Table MV-1'!$P$61</f>
-        <v>3.2001349757641386E-2</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <f>'Table MV-1'!M20/'Table MV-1'!$M$61</f>
-        <v>2.4934379105058271E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5081,28 +5024,22 @@
         <v>47</v>
       </c>
       <c r="B13">
-        <f>'Table MV-1'!D21/'Table MV-1'!$D$61</f>
-        <v>4.5177880312321358E-3</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <f>'Table MV-1'!G21/'Table MV-1'!$G$61</f>
-        <v>2.8664568903761568E-3</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <f>'Table MV-1'!$P21/'Table MV-1'!$P$61</f>
-        <v>4.5120524608973367E-3</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <f>'Table MV-1'!$P21/'Table MV-1'!$P$61</f>
-        <v>4.5120524608973367E-3</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <f>'Table MV-1'!$P21/'Table MV-1'!$P$61</f>
-        <v>4.5120524608973367E-3</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <f>'Table MV-1'!M21/'Table MV-1'!$M$61</f>
-        <v>4.4403672368620124E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5110,28 +5047,22 @@
         <v>46</v>
       </c>
       <c r="B14">
-        <f>'Table MV-1'!D22/'Table MV-1'!$D$61</f>
-        <v>5.5962364686266176E-3</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <f>'Table MV-1'!G22/'Table MV-1'!$G$61</f>
-        <v>3.782530808201743E-3</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <f>'Table MV-1'!$P22/'Table MV-1'!$P$61</f>
-        <v>6.9502899565489131E-3</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <f>'Table MV-1'!$P22/'Table MV-1'!$P$61</f>
-        <v>6.9502899565489131E-3</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <f>'Table MV-1'!$P22/'Table MV-1'!$P$61</f>
-        <v>6.9502899565489131E-3</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <f>'Table MV-1'!M22/'Table MV-1'!$M$61</f>
-        <v>7.1114318443253836E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5139,28 +5070,22 @@
         <v>45</v>
       </c>
       <c r="B15">
-        <f>'Table MV-1'!D23/'Table MV-1'!$D$61</f>
-        <v>3.9583802966272987E-2</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <f>'Table MV-1'!G23/'Table MV-1'!$G$61</f>
-        <v>3.2598122743969261E-2</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <f>'Table MV-1'!$P23/'Table MV-1'!$P$61</f>
-        <v>3.837338547117259E-2</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <f>'Table MV-1'!$P23/'Table MV-1'!$P$61</f>
-        <v>3.837338547117259E-2</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <f>'Table MV-1'!$P23/'Table MV-1'!$P$61</f>
-        <v>3.837338547117259E-2</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <f>'Table MV-1'!M23/'Table MV-1'!$M$61</f>
-        <v>3.3659616673110682E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5168,28 +5093,22 @@
         <v>44</v>
       </c>
       <c r="B16">
-        <f>'Table MV-1'!D24/'Table MV-1'!$D$61</f>
-        <v>2.0200142102604929E-2</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <f>'Table MV-1'!G24/'Table MV-1'!$G$61</f>
-        <v>2.0735859723449008E-2</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <f>'Table MV-1'!$P24/'Table MV-1'!$P$61</f>
-        <v>2.2470473208938503E-2</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <f>'Table MV-1'!$P24/'Table MV-1'!$P$61</f>
-        <v>2.2470473208938503E-2</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <f>'Table MV-1'!$P24/'Table MV-1'!$P$61</f>
-        <v>2.2470473208938503E-2</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <f>'Table MV-1'!M24/'Table MV-1'!$M$61</f>
-        <v>2.519458126304313E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -5197,28 +5116,22 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <f>'Table MV-1'!D25/'Table MV-1'!$D$61</f>
-        <v>1.1069079557484499E-2</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <f>'Table MV-1'!G25/'Table MV-1'!$G$61</f>
-        <v>9.1140412670434948E-3</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <f>'Table MV-1'!$P25/'Table MV-1'!$P$61</f>
-        <v>1.3726141018743511E-2</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <f>'Table MV-1'!$P25/'Table MV-1'!$P$61</f>
-        <v>1.3726141018743511E-2</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <f>'Table MV-1'!$P25/'Table MV-1'!$P$61</f>
-        <v>1.3726141018743511E-2</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <f>'Table MV-1'!M25/'Table MV-1'!$M$61</f>
-        <v>2.3030832815010314E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5226,28 +5139,22 @@
         <v>42</v>
       </c>
       <c r="B18">
-        <f>'Table MV-1'!D26/'Table MV-1'!$D$61</f>
-        <v>8.4565602609209273E-3</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <f>'Table MV-1'!G26/'Table MV-1'!$G$61</f>
-        <v>6.5585725938901249E-3</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <f>'Table MV-1'!$P26/'Table MV-1'!$P$61</f>
-        <v>9.4360931295224514E-3</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <f>'Table MV-1'!$P26/'Table MV-1'!$P$61</f>
-        <v>9.4360931295224514E-3</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <f>'Table MV-1'!$P26/'Table MV-1'!$P$61</f>
-        <v>9.4360931295224514E-3</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <f>'Table MV-1'!M26/'Table MV-1'!$M$61</f>
-        <v>1.0883942873198577E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5255,28 +5162,22 @@
         <v>41</v>
       </c>
       <c r="B19">
-        <f>'Table MV-1'!D27/'Table MV-1'!$D$61</f>
-        <v>1.5641720716067772E-2</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <f>'Table MV-1'!G27/'Table MV-1'!$G$61</f>
-        <v>1.0917375497904058E-2</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <f>'Table MV-1'!$P27/'Table MV-1'!$P$61</f>
-        <v>1.6163360078298817E-2</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <f>'Table MV-1'!$P27/'Table MV-1'!$P$61</f>
-        <v>1.6163360078298817E-2</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <f>'Table MV-1'!$P27/'Table MV-1'!$P$61</f>
-        <v>1.6163360078298817E-2</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <f>'Table MV-1'!M27/'Table MV-1'!$M$61</f>
-        <v>1.166599024512076E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5284,28 +5185,22 @@
         <v>40</v>
       </c>
       <c r="B20">
-        <f>'Table MV-1'!D28/'Table MV-1'!$D$61</f>
-        <v>1.2514264951923855E-2</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <f>'Table MV-1'!G28/'Table MV-1'!$G$61</f>
-        <v>2.9889643893651965E-2</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <f>'Table MV-1'!$P28/'Table MV-1'!$P$61</f>
-        <v>1.3994268785299344E-2</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <f>'Table MV-1'!$P28/'Table MV-1'!$P$61</f>
-        <v>1.3994268785299344E-2</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <f>'Table MV-1'!$P28/'Table MV-1'!$P$61</f>
-        <v>1.3994268785299344E-2</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <f>'Table MV-1'!M28/'Table MV-1'!$M$61</f>
-        <v>1.2186394561090472E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -5313,28 +5208,22 @@
         <v>39</v>
       </c>
       <c r="B21">
-        <f>'Table MV-1'!D29/'Table MV-1'!$D$61</f>
-        <v>3.3868643547885439E-3</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <f>'Table MV-1'!G29/'Table MV-1'!$G$61</f>
-        <v>4.5932860326547567E-3</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <f>'Table MV-1'!$P29/'Table MV-1'!$P$61</f>
-        <v>4.0632555805939817E-3</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <f>'Table MV-1'!$P29/'Table MV-1'!$P$61</f>
-        <v>4.0632555805939817E-3</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <f>'Table MV-1'!$P29/'Table MV-1'!$P$61</f>
-        <v>4.0632555805939817E-3</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <f>'Table MV-1'!M29/'Table MV-1'!$M$61</f>
-        <v>4.6036690065248661E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5342,28 +5231,22 @@
         <v>38</v>
       </c>
       <c r="B22">
-        <f>'Table MV-1'!D30/'Table MV-1'!$D$61</f>
-        <v>1.7344821387298082E-2</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <f>'Table MV-1'!G30/'Table MV-1'!$G$61</f>
-        <v>2.2395125930356523E-2</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <f>'Table MV-1'!$P30/'Table MV-1'!$P$61</f>
-        <v>1.5263410504658027E-2</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <f>'Table MV-1'!$P30/'Table MV-1'!$P$61</f>
-        <v>1.5263410504658027E-2</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <f>'Table MV-1'!$P30/'Table MV-1'!$P$61</f>
-        <v>1.5263410504658027E-2</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <f>'Table MV-1'!M30/'Table MV-1'!$M$61</f>
-        <v>1.3514422187907504E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5371,28 +5254,22 @@
         <v>83</v>
       </c>
       <c r="B23">
-        <f>'Table MV-1'!D31/'Table MV-1'!$D$61</f>
-        <v>1.9055188885179382E-2</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <f>'Table MV-1'!G31/'Table MV-1'!$G$61</f>
-        <v>1.3663610106222844E-2</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <f>'Table MV-1'!$P31/'Table MV-1'!$P$61</f>
-        <v>1.8254600811341285E-2</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <f>'Table MV-1'!$P31/'Table MV-1'!$P$61</f>
-        <v>1.8254600811341285E-2</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <f>'Table MV-1'!$P31/'Table MV-1'!$P$61</f>
-        <v>1.8254600811341285E-2</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <f>'Table MV-1'!M31/'Table MV-1'!$M$61</f>
-        <v>1.6585095831722331E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5400,28 +5277,22 @@
         <v>36</v>
       </c>
       <c r="B24">
-        <f>'Table MV-1'!D32/'Table MV-1'!$D$61</f>
-        <v>2.5602285816466973E-2</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <f>'Table MV-1'!G32/'Table MV-1'!$G$61</f>
-        <v>8.8845260012976063E-3</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <f>'Table MV-1'!$P32/'Table MV-1'!$P$61</f>
-        <v>3.0637308640614442E-2</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <f>'Table MV-1'!$P32/'Table MV-1'!$P$61</f>
-        <v>3.0637308640614442E-2</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <f>'Table MV-1'!$P32/'Table MV-1'!$P$61</f>
-        <v>3.0637308640614442E-2</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <f>'Table MV-1'!M32/'Table MV-1'!$M$61</f>
-        <v>2.8515490853900149E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5429,28 +5300,22 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <f>'Table MV-1'!D33/'Table MV-1'!$D$61</f>
-        <v>1.7517332427833467E-2</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <f>'Table MV-1'!G33/'Table MV-1'!$G$61</f>
-        <v>1.9068644935909602E-2</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <f>'Table MV-1'!$P33/'Table MV-1'!$P$61</f>
-        <v>2.0625139489048872E-2</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <f>'Table MV-1'!$P33/'Table MV-1'!$P$61</f>
-        <v>2.0625139489048872E-2</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <f>'Table MV-1'!$P33/'Table MV-1'!$P$61</f>
-        <v>2.0625139489048872E-2</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <f>'Table MV-1'!M33/'Table MV-1'!$M$61</f>
-        <v>2.9294896579548375E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5458,28 +5323,22 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <f>'Table MV-1'!D34/'Table MV-1'!$D$61</f>
-        <v>7.4991463380995726E-3</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <f>'Table MV-1'!G34/'Table MV-1'!$G$61</f>
-        <v>7.3385270683945557E-3</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <f>'Table MV-1'!$P34/'Table MV-1'!$P$61</f>
-        <v>7.462400218225123E-3</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <f>'Table MV-1'!$P34/'Table MV-1'!$P$61</f>
-        <v>7.462400218225123E-3</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <f>'Table MV-1'!$P34/'Table MV-1'!$P$61</f>
-        <v>7.462400218225123E-3</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <f>'Table MV-1'!M34/'Table MV-1'!$M$61</f>
-        <v>3.6710477969870824E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5487,28 +5346,22 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <f>'Table MV-1'!D35/'Table MV-1'!$D$61</f>
-        <v>1.8941078781341755E-2</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <f>'Table MV-1'!G35/'Table MV-1'!$G$61</f>
-        <v>3.3533074540795592E-2</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <f>'Table MV-1'!$P35/'Table MV-1'!$P$61</f>
-        <v>2.024919884507027E-2</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <f>'Table MV-1'!$P35/'Table MV-1'!$P$61</f>
-        <v>2.024919884507027E-2</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <f>'Table MV-1'!$P35/'Table MV-1'!$P$61</f>
-        <v>2.024919884507027E-2</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <f>'Table MV-1'!M35/'Table MV-1'!$M$61</f>
-        <v>1.5214201490368798E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5516,28 +5369,22 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <f>'Table MV-1'!D36/'Table MV-1'!$D$61</f>
-        <v>4.3665733583296952E-3</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <f>'Table MV-1'!G36/'Table MV-1'!$G$61</f>
-        <v>5.1616095478350553E-3</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <f>'Table MV-1'!$P36/'Table MV-1'!$P$61</f>
-        <v>7.0766920109744495E-3</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <f>'Table MV-1'!$P36/'Table MV-1'!$P$61</f>
-        <v>7.0766920109744495E-3</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <f>'Table MV-1'!$P36/'Table MV-1'!$P$61</f>
-        <v>7.0766920109744495E-3</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <f>'Table MV-1'!M36/'Table MV-1'!$M$61</f>
-        <v>4.2647577970591273E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -5545,28 +5392,22 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <f>'Table MV-1'!D37/'Table MV-1'!$D$61</f>
-        <v>5.9438361806167864E-3</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <f>'Table MV-1'!G37/'Table MV-1'!$G$61</f>
-        <v>1.7177876318098223E-2</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <f>'Table MV-1'!$P37/'Table MV-1'!$P$61</f>
-        <v>7.0143680710759082E-3</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <f>'Table MV-1'!$P37/'Table MV-1'!$P$61</f>
-        <v>7.0143680710759082E-3</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <f>'Table MV-1'!$P37/'Table MV-1'!$P$61</f>
-        <v>7.0143680710759082E-3</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <f>'Table MV-1'!M37/'Table MV-1'!$M$61</f>
-        <v>6.0485294435492195E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -5574,28 +5415,22 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <f>'Table MV-1'!D38/'Table MV-1'!$D$61</f>
-        <v>9.7731494559867137E-3</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <f>'Table MV-1'!G38/'Table MV-1'!$G$61</f>
-        <v>3.1883744059677944E-3</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <f>'Table MV-1'!$P38/'Table MV-1'!$P$61</f>
-        <v>9.2397053063459945E-3</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <f>'Table MV-1'!$P38/'Table MV-1'!$P$61</f>
-        <v>9.2397053063459945E-3</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <f>'Table MV-1'!$P38/'Table MV-1'!$P$61</f>
-        <v>9.2397053063459945E-3</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <f>'Table MV-1'!M38/'Table MV-1'!$M$61</f>
-        <v>8.327909953483011E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5603,28 +5438,22 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <f>'Table MV-1'!D39/'Table MV-1'!$D$61</f>
-        <v>4.3831615071246288E-3</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <f>'Table MV-1'!G39/'Table MV-1'!$G$61</f>
-        <v>3.0602035432785312E-3</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <f>'Table MV-1'!$P39/'Table MV-1'!$P$61</f>
-        <v>4.9201517649550101E-3</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <f>'Table MV-1'!$P39/'Table MV-1'!$P$61</f>
-        <v>4.9201517649550101E-3</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <f>'Table MV-1'!$P39/'Table MV-1'!$P$61</f>
-        <v>4.9201517649550101E-3</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <f>'Table MV-1'!M39/'Table MV-1'!$M$61</f>
-        <v>9.4484482729637106E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -5632,28 +5461,22 @@
         <v>28</v>
       </c>
       <c r="B32">
-        <f>'Table MV-1'!D40/'Table MV-1'!$D$61</f>
-        <v>2.4170045645943845E-2</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <f>'Table MV-1'!G40/'Table MV-1'!$G$61</f>
-        <v>2.5791157005332504E-2</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <f>'Table MV-1'!$P40/'Table MV-1'!$P$61</f>
-        <v>2.1768607643858712E-2</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <f>'Table MV-1'!$P40/'Table MV-1'!$P$61</f>
-        <v>2.1768607643858712E-2</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <f>'Table MV-1'!$P40/'Table MV-1'!$P$61</f>
-        <v>2.1768607643858712E-2</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <f>'Table MV-1'!M40/'Table MV-1'!$M$61</f>
-        <v>1.4574562867579076E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -5661,28 +5484,22 @@
         <v>27</v>
       </c>
       <c r="B33">
-        <f>'Table MV-1'!D41/'Table MV-1'!$D$61</f>
-        <v>5.9347811819626707E-3</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <f>'Table MV-1'!G41/'Table MV-1'!$G$61</f>
-        <v>9.7280691208571756E-3</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <f>'Table MV-1'!$P41/'Table MV-1'!$P$61</f>
-        <v>6.4627236423600801E-3</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <f>'Table MV-1'!$P41/'Table MV-1'!$P$61</f>
-        <v>6.4627236423600801E-3</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <f>'Table MV-1'!$P41/'Table MV-1'!$P$61</f>
-        <v>6.4627236423600801E-3</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <f>'Table MV-1'!M41/'Table MV-1'!$M$61</f>
-        <v>6.5976316440405662E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -5690,28 +5507,22 @@
         <v>26</v>
       </c>
       <c r="B34">
-        <f>'Table MV-1'!D42/'Table MV-1'!$D$61</f>
-        <v>4.0260007818496736E-2</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <f>'Table MV-1'!G42/'Table MV-1'!$G$61</f>
-        <v>8.1156995396778245E-2</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <f>'Table MV-1'!$P42/'Table MV-1'!$P$61</f>
-        <v>4.1044623748877983E-2</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <f>'Table MV-1'!$P42/'Table MV-1'!$P$61</f>
-        <v>4.1044623748877983E-2</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <f>'Table MV-1'!$P42/'Table MV-1'!$P$61</f>
-        <v>4.1044623748877983E-2</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <f>'Table MV-1'!M42/'Table MV-1'!$M$61</f>
-        <v>4.6183181358622691E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -5719,28 +5530,22 @@
         <v>25</v>
       </c>
       <c r="B35">
-        <f>'Table MV-1'!D43/'Table MV-1'!$D$61</f>
-        <v>3.232472823114596E-2</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <f>'Table MV-1'!G43/'Table MV-1'!$G$61</f>
-        <v>3.311776120277922E-2</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <f>'Table MV-1'!$P43/'Table MV-1'!$P$61</f>
-        <v>3.167401497304749E-2</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <f>'Table MV-1'!$P43/'Table MV-1'!$P$61</f>
-        <v>3.167401497304749E-2</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <f>'Table MV-1'!$P43/'Table MV-1'!$P$61</f>
-        <v>3.167401497304749E-2</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <f>'Table MV-1'!M43/'Table MV-1'!$M$61</f>
-        <v>2.2775793874742739E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -5748,28 +5553,22 @@
         <v>24</v>
       </c>
       <c r="B36">
-        <f>'Table MV-1'!D44/'Table MV-1'!$D$61</f>
-        <v>2.0512044955405084E-3</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <f>'Table MV-1'!G44/'Table MV-1'!$G$61</f>
-        <v>3.6394563568276817E-3</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <f>'Table MV-1'!$P44/'Table MV-1'!$P$61</f>
-        <v>3.2585714617236724E-3</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <f>'Table MV-1'!$P44/'Table MV-1'!$P$61</f>
-        <v>3.2585714617236724E-3</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <f>'Table MV-1'!$P44/'Table MV-1'!$P$61</f>
-        <v>3.2585714617236724E-3</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <f>'Table MV-1'!M44/'Table MV-1'!$M$61</f>
-        <v>4.3507914132087117E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -5777,28 +5576,22 @@
         <v>23</v>
       </c>
       <c r="B37">
-        <f>'Table MV-1'!D45/'Table MV-1'!$D$61</f>
-        <v>4.0403584714173067E-2</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <f>'Table MV-1'!G45/'Table MV-1'!$G$61</f>
-        <v>4.1215377721519487E-2</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <f>'Table MV-1'!$P45/'Table MV-1'!$P$61</f>
-        <v>3.8390028384176433E-2</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <f>'Table MV-1'!$P45/'Table MV-1'!$P$61</f>
-        <v>3.8390028384176433E-2</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <f>'Table MV-1'!$P45/'Table MV-1'!$P$61</f>
-        <v>3.8390028384176433E-2</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <f>'Table MV-1'!M45/'Table MV-1'!$M$61</f>
-        <v>4.5702521811592983E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -5806,28 +5599,22 @@
         <v>22</v>
       </c>
       <c r="B38">
-        <f>'Table MV-1'!D46/'Table MV-1'!$D$61</f>
-        <v>1.1640695370631938E-2</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <f>'Table MV-1'!G46/'Table MV-1'!$G$61</f>
-        <v>2.8227396969007492E-3</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <f>'Table MV-1'!$P46/'Table MV-1'!$P$61</f>
-        <v>1.3519637696831486E-2</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <f>'Table MV-1'!$P46/'Table MV-1'!$P$61</f>
-        <v>1.3519637696831486E-2</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <f>'Table MV-1'!$P46/'Table MV-1'!$P$61</f>
-        <v>1.3519637696831486E-2</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <f>'Table MV-1'!M46/'Table MV-1'!$M$61</f>
-        <v>1.6077419447799869E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -5835,28 +5622,22 @@
         <v>21</v>
       </c>
       <c r="B39">
-        <f>'Table MV-1'!D47/'Table MV-1'!$D$61</f>
-        <v>1.3704702416790554E-2</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <f>'Table MV-1'!G47/'Table MV-1'!$G$61</f>
-        <v>1.772632838169879E-2</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <f>'Table MV-1'!$P47/'Table MV-1'!$P$61</f>
-        <v>1.4843224067571648E-2</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <f>'Table MV-1'!$P47/'Table MV-1'!$P$61</f>
-        <v>1.4843224067571648E-2</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <f>'Table MV-1'!$P47/'Table MV-1'!$P$61</f>
-        <v>1.4843224067571648E-2</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <f>'Table MV-1'!M47/'Table MV-1'!$M$61</f>
-        <v>1.4843290338538977E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -5864,28 +5645,22 @@
         <v>20</v>
       </c>
       <c r="B40">
-        <f>'Table MV-1'!D48/'Table MV-1'!$D$61</f>
-        <v>3.846201038090917E-2</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <f>'Table MV-1'!G48/'Table MV-1'!$G$61</f>
-        <v>5.4911775722848888E-2</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <f>'Table MV-1'!$P48/'Table MV-1'!$P$61</f>
-        <v>3.8744741340554098E-2</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <f>'Table MV-1'!$P48/'Table MV-1'!$P$61</f>
-        <v>3.8744741340554098E-2</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <f>'Table MV-1'!$P48/'Table MV-1'!$P$61</f>
-        <v>3.8744741340554098E-2</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <f>'Table MV-1'!M48/'Table MV-1'!$M$61</f>
-        <v>4.3286135919905287E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -5893,28 +5668,22 @@
         <v>19</v>
       </c>
       <c r="B41">
-        <f>'Table MV-1'!D49/'Table MV-1'!$D$61</f>
-        <v>3.6311971335983252E-3</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <f>'Table MV-1'!G49/'Table MV-1'!$G$61</f>
-        <v>2.3031012380907907E-3</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <f>'Table MV-1'!$P49/'Table MV-1'!$P$61</f>
-        <v>3.1409330317849157E-3</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <f>'Table MV-1'!$P49/'Table MV-1'!$P$61</f>
-        <v>3.1409330317849157E-3</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <f>'Table MV-1'!$P49/'Table MV-1'!$P$61</f>
-        <v>3.1409330317849157E-3</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <f>'Table MV-1'!M49/'Table MV-1'!$M$61</f>
-        <v>2.8346065267874938E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -5922,28 +5691,22 @@
         <v>18</v>
       </c>
       <c r="B42">
-        <f>'Table MV-1'!D50/'Table MV-1'!$D$61</f>
-        <v>1.6810224539236585E-2</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <f>'Table MV-1'!G50/'Table MV-1'!$G$61</f>
-        <v>1.6360166085592303E-2</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <f>'Table MV-1'!$P50/'Table MV-1'!$P$61</f>
-        <v>1.6531642517752781E-2</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <f>'Table MV-1'!$P50/'Table MV-1'!$P$61</f>
-        <v>1.6531642517752781E-2</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <f>'Table MV-1'!$P50/'Table MV-1'!$P$61</f>
-        <v>1.6531642517752781E-2</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <f>'Table MV-1'!M50/'Table MV-1'!$M$61</f>
-        <v>1.3750249155273566E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -5951,28 +5714,22 @@
         <v>17</v>
       </c>
       <c r="B43">
-        <f>'Table MV-1'!D51/'Table MV-1'!$D$61</f>
-        <v>3.0912643041870807E-3</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <f>'Table MV-1'!G51/'Table MV-1'!$G$61</f>
-        <v>2.6518452133150647E-3</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <f>'Table MV-1'!$P51/'Table MV-1'!$P$61</f>
-        <v>4.6909021621169989E-3</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <f>'Table MV-1'!$P51/'Table MV-1'!$P$61</f>
-        <v>4.6909021621169989E-3</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <f>'Table MV-1'!$P51/'Table MV-1'!$P$61</f>
-        <v>4.6909021621169989E-3</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <f>'Table MV-1'!M51/'Table MV-1'!$M$61</f>
-        <v>1.5581990696602122E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -5980,28 +5737,22 @@
         <v>16</v>
       </c>
       <c r="B44">
-        <f>'Table MV-1'!D52/'Table MV-1'!$D$61</f>
-        <v>2.0122946336767956E-2</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <f>'Table MV-1'!G52/'Table MV-1'!$G$61</f>
-        <v>2.9370005434842007E-2</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <f>'Table MV-1'!$P52/'Table MV-1'!$P$61</f>
-        <v>2.1221790819698876E-2</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <f>'Table MV-1'!$P52/'Table MV-1'!$P$61</f>
-        <v>2.1221790819698876E-2</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <f>'Table MV-1'!$P52/'Table MV-1'!$P$61</f>
-        <v>2.1221790819698876E-2</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <f>'Table MV-1'!M52/'Table MV-1'!$M$61</f>
-        <v>2.12856652265692E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -6009,28 +5760,22 @@
         <v>15</v>
       </c>
       <c r="B45">
-        <f>'Table MV-1'!D53/'Table MV-1'!$D$61</f>
-        <v>7.6929994017233036E-2</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <f>'Table MV-1'!G53/'Table MV-1'!$G$61</f>
-        <v>7.0475096600093989E-2</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <f>'Table MV-1'!$P53/'Table MV-1'!$P$61</f>
-        <v>8.1255579629910979E-2</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <f>'Table MV-1'!$P53/'Table MV-1'!$P$61</f>
-        <v>8.1255579629910979E-2</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <f>'Table MV-1'!$P53/'Table MV-1'!$P$61</f>
-        <v>8.1255579629910979E-2</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <f>'Table MV-1'!M53/'Table MV-1'!$M$61</f>
-        <v>3.9420566897290392E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -6038,28 +5783,22 @@
         <v>14</v>
       </c>
       <c r="B46">
-        <f>'Table MV-1'!D54/'Table MV-1'!$D$61</f>
-        <v>8.5862978466794693E-3</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <f>'Table MV-1'!G54/'Table MV-1'!$G$61</f>
-        <v>6.3797295296725487E-3</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <f>'Table MV-1'!$P54/'Table MV-1'!$P$61</f>
-        <v>8.9868975731671758E-3</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <f>'Table MV-1'!$P54/'Table MV-1'!$P$61</f>
-        <v>8.9868975731671758E-3</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <f>'Table MV-1'!$P54/'Table MV-1'!$P$61</f>
-        <v>8.9868975731671758E-3</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <f>'Table MV-1'!M54/'Table MV-1'!$M$61</f>
-        <v>1.4880153311543754E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -6067,28 +5806,22 @@
         <v>13</v>
       </c>
       <c r="B47">
-        <f>'Table MV-1'!D55/'Table MV-1'!$D$61</f>
-        <v>1.8396009713198137E-3</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <f>'Table MV-1'!G55/'Table MV-1'!$G$61</f>
-        <v>1.0720648127264725E-3</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <f>'Table MV-1'!$P55/'Table MV-1'!$P$61</f>
-        <v>2.2031925927497274E-3</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <f>'Table MV-1'!$P55/'Table MV-1'!$P$61</f>
-        <v>2.2031925927497274E-3</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <f>'Table MV-1'!$P55/'Table MV-1'!$P$61</f>
-        <v>2.2031925927497274E-3</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <f>'Table MV-1'!M55/'Table MV-1'!$M$61</f>
-        <v>3.4752057482222922E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -6096,28 +5829,22 @@
         <v>12</v>
       </c>
       <c r="B48">
-        <f>'Table MV-1'!D56/'Table MV-1'!$D$61</f>
-        <v>2.9079234091689471E-2</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <f>'Table MV-1'!G56/'Table MV-1'!$G$61</f>
-        <v>3.5235064368599529E-2</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <f>'Table MV-1'!$P56/'Table MV-1'!$P$61</f>
-        <v>2.7568275022629669E-2</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <f>'Table MV-1'!$P56/'Table MV-1'!$P$61</f>
-        <v>2.7568275022629669E-2</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <f>'Table MV-1'!$P56/'Table MV-1'!$P$61</f>
-        <v>2.7568275022629669E-2</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <f>'Table MV-1'!M56/'Table MV-1'!$M$61</f>
-        <v>2.2146721837048848E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -6125,28 +5852,22 @@
         <v>11</v>
       </c>
       <c r="B49">
-        <f>'Table MV-1'!D57/'Table MV-1'!$D$61</f>
-        <v>2.6635868257378827E-2</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <f>'Table MV-1'!G57/'Table MV-1'!$G$61</f>
-        <v>2.4016636379262549E-2</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <f>'Table MV-1'!$P57/'Table MV-1'!$P$61</f>
-        <v>2.6303199799000584E-2</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <f>'Table MV-1'!$P57/'Table MV-1'!$P$61</f>
-        <v>2.6303199799000584E-2</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <f>'Table MV-1'!$P57/'Table MV-1'!$P$61</f>
-        <v>2.6303199799000584E-2</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <f>'Table MV-1'!M57/'Table MV-1'!$M$61</f>
-        <v>2.6590331094337991E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -6154,28 +5875,22 @@
         <v>10</v>
       </c>
       <c r="B50">
-        <f>'Table MV-1'!D58/'Table MV-1'!$D$61</f>
-        <v>4.8381751894939189E-3</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <f>'Table MV-1'!G58/'Table MV-1'!$G$61</f>
-        <v>3.1347214867025212E-3</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <f>'Table MV-1'!$P58/'Table MV-1'!$P$61</f>
-        <v>6.0068230796770363E-3</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <f>'Table MV-1'!$P58/'Table MV-1'!$P$61</f>
-        <v>6.0068230796770363E-3</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <f>'Table MV-1'!$P58/'Table MV-1'!$P$61</f>
-        <v>6.0068230796770363E-3</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <f>'Table MV-1'!M58/'Table MV-1'!$M$61</f>
-        <v>5.2267373026870347E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -6183,28 +5898,22 @@
         <v>9</v>
       </c>
       <c r="B51">
-        <f>'Table MV-1'!D59/'Table MV-1'!$D$61</f>
-        <v>1.8086189890550556E-2</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <f>'Table MV-1'!G59/'Table MV-1'!$G$61</f>
-        <v>1.4844967902637837E-2</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <f>'Table MV-1'!$P59/'Table MV-1'!$P$61</f>
-        <v>2.035520680727616E-2</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <f>'Table MV-1'!$P59/'Table MV-1'!$P$61</f>
-        <v>2.035520680727616E-2</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <f>'Table MV-1'!$P59/'Table MV-1'!$P$61</f>
-        <v>2.035520680727616E-2</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <f>'Table MV-1'!M59/'Table MV-1'!$M$61</f>
-        <v>3.3177876452605261E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -6212,28 +5921,22 @@
         <v>8</v>
       </c>
       <c r="B52">
-        <f>'Table MV-1'!D60/'Table MV-1'!$D$61</f>
-        <v>1.8198644984129973E-3</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <f>'Table MV-1'!G60/'Table MV-1'!$G$61</f>
-        <v>4.0746411464237849E-3</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <f>'Table MV-1'!$P60/'Table MV-1'!$P$61</f>
-        <v>3.1206476693976084E-3</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <f>'Table MV-1'!$P60/'Table MV-1'!$P$61</f>
-        <v>3.1206476693976084E-3</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <f>'Table MV-1'!$P60/'Table MV-1'!$P$61</f>
-        <v>3.1206476693976084E-3</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <f>'Table MV-1'!M60/'Table MV-1'!$M$61</f>
-        <v>3.420691775114251E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -6456,14 +6159,14 @@
   </sheetPr>
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F52"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="7" width="13.7109375" customWidth="1"/>
+    <col min="2" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6494,27 +6197,22 @@
         <v>58</v>
       </c>
       <c r="B2">
-        <f>C2</f>
-        <v>1.9600927701391289E-2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <f>'Table MV-1'!J10/'Table MV-1'!$J$61</f>
-        <v>1.9600927701391289E-2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <f>'Table MV-1'!$P10/'Table MV-1'!$P$61</f>
-        <v>1.9282655873447636E-2</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <f>'Table MV-1'!$P10/'Table MV-1'!$P$61</f>
-        <v>1.9282655873447636E-2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <f>'Table MV-1'!$P10/'Table MV-1'!$P$61</f>
-        <v>1.9282655873447636E-2</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6522,24 +6220,19 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B52" si="0">C3</f>
-        <v>3.6314972397001131E-3</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <f>'Table MV-1'!J11/'Table MV-1'!$J$61</f>
-        <v>3.6314972397001131E-3</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <f>'Table MV-1'!$P11/'Table MV-1'!$P$61</f>
-        <v>2.8734612685508815E-3</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <f>'Table MV-1'!$P11/'Table MV-1'!$P$61</f>
-        <v>2.8734612685508815E-3</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <f>'Table MV-1'!$P11/'Table MV-1'!$P$61</f>
-        <v>2.8734612685508815E-3</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -6550,24 +6243,19 @@
         <v>56</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
-        <v>2.1767409304149131E-2</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <f>'Table MV-1'!J12/'Table MV-1'!$J$61</f>
-        <v>2.1767409304149131E-2</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <f>'Table MV-1'!$P12/'Table MV-1'!$P$61</f>
-        <v>2.194088643887716E-2</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <f>'Table MV-1'!$P12/'Table MV-1'!$P$61</f>
-        <v>2.194088643887716E-2</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <f>'Table MV-1'!$P12/'Table MV-1'!$P$61</f>
-        <v>2.194088643887716E-2</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -6578,24 +6266,19 @@
         <v>55</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>1.1515440266444459E-2</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <f>'Table MV-1'!J13/'Table MV-1'!$J$61</f>
-        <v>1.1515440266444459E-2</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <f>'Table MV-1'!$P13/'Table MV-1'!$P$61</f>
-        <v>1.0559004097364129E-2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <f>'Table MV-1'!$P13/'Table MV-1'!$P$61</f>
-        <v>1.0559004097364129E-2</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <f>'Table MV-1'!$P13/'Table MV-1'!$P$61</f>
-        <v>1.0559004097364129E-2</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -6606,24 +6289,19 @@
         <v>54</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
-        <v>9.483573703336938E-2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <f>'Table MV-1'!J14/'Table MV-1'!$J$61</f>
-        <v>9.483573703336938E-2</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <f>'Table MV-1'!$P14/'Table MV-1'!$P$61</f>
-        <v>0.1101732172422014</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <f>'Table MV-1'!$P14/'Table MV-1'!$P$61</f>
-        <v>0.1101732172422014</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <f>'Table MV-1'!$P14/'Table MV-1'!$P$61</f>
-        <v>0.1101732172422014</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6634,24 +6312,19 @@
         <v>53</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
-        <v>2.17963420575671E-2</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <f>'Table MV-1'!J15/'Table MV-1'!$J$61</f>
-        <v>2.17963420575671E-2</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <f>'Table MV-1'!$P15/'Table MV-1'!$P$61</f>
-        <v>1.9392719458399887E-2</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <f>'Table MV-1'!$P15/'Table MV-1'!$P$61</f>
-        <v>1.9392719458399887E-2</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <f>'Table MV-1'!$P15/'Table MV-1'!$P$61</f>
-        <v>1.9392719458399887E-2</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -6662,24 +6335,19 @@
         <v>52</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>9.6855101995915252E-3</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <f>'Table MV-1'!J16/'Table MV-1'!$J$61</f>
-        <v>9.6855101995915252E-3</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <f>'Table MV-1'!$P16/'Table MV-1'!$P$61</f>
-        <v>1.0392955521738887E-2</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <f>'Table MV-1'!$P16/'Table MV-1'!$P$61</f>
-        <v>1.0392955521738887E-2</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <f>'Table MV-1'!$P16/'Table MV-1'!$P$61</f>
-        <v>1.0392955521738887E-2</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6690,24 +6358,19 @@
         <v>51</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
-        <v>3.607073808587494E-3</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <f>'Table MV-1'!J17/'Table MV-1'!$J$61</f>
-        <v>3.607073808587494E-3</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <f>'Table MV-1'!$P17/'Table MV-1'!$P$61</f>
-        <v>3.6465629954535311E-3</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <f>'Table MV-1'!$P17/'Table MV-1'!$P$61</f>
-        <v>3.6465629954535311E-3</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <f>'Table MV-1'!$P17/'Table MV-1'!$P$61</f>
-        <v>3.6465629954535311E-3</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -6718,24 +6381,19 @@
         <v>84</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>8.5193982126037439E-4</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <f>'Table MV-1'!J18/'Table MV-1'!$J$61</f>
-        <v>8.5193982126037439E-4</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <f>'Table MV-1'!$P18/'Table MV-1'!$P$61</f>
-        <v>1.2922069411262062E-3</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <f>'Table MV-1'!$P18/'Table MV-1'!$P$61</f>
-        <v>1.2922069411262062E-3</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <f>'Table MV-1'!$P18/'Table MV-1'!$P$61</f>
-        <v>1.2922069411262062E-3</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -6746,24 +6404,19 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>6.1586335732623156E-2</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <f>'Table MV-1'!J19/'Table MV-1'!$J$61</f>
-        <v>6.1586335732623156E-2</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <f>'Table MV-1'!$P19/'Table MV-1'!$P$61</f>
-        <v>6.6921421388709962E-2</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <f>'Table MV-1'!$P19/'Table MV-1'!$P$61</f>
-        <v>6.6921421388709962E-2</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <f>'Table MV-1'!$P19/'Table MV-1'!$P$61</f>
-        <v>6.6921421388709962E-2</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -6774,24 +6427,19 @@
         <v>48</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>3.1525712849526988E-2</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <f>'Table MV-1'!J20/'Table MV-1'!$J$61</f>
-        <v>3.1525712849526988E-2</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <f>'Table MV-1'!$P20/'Table MV-1'!$P$61</f>
-        <v>3.2001349757641386E-2</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <f>'Table MV-1'!$P20/'Table MV-1'!$P$61</f>
-        <v>3.2001349757641386E-2</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <f>'Table MV-1'!$P20/'Table MV-1'!$P$61</f>
-        <v>3.2001349757641386E-2</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -6802,24 +6450,19 @@
         <v>47</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
-        <v>4.5222742187277015E-3</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <f>'Table MV-1'!J21/'Table MV-1'!$J$61</f>
-        <v>4.5222742187277015E-3</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <f>'Table MV-1'!$P21/'Table MV-1'!$P$61</f>
-        <v>4.5120524608973367E-3</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <f>'Table MV-1'!$P21/'Table MV-1'!$P$61</f>
-        <v>4.5120524608973367E-3</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <f>'Table MV-1'!$P21/'Table MV-1'!$P$61</f>
-        <v>4.5120524608973367E-3</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -6830,24 +6473,19 @@
         <v>46</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
-        <v>7.8435139790973586E-3</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <f>'Table MV-1'!J22/'Table MV-1'!$J$61</f>
-        <v>7.8435139790973586E-3</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <f>'Table MV-1'!$P22/'Table MV-1'!$P$61</f>
-        <v>6.9502899565489131E-3</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <f>'Table MV-1'!$P22/'Table MV-1'!$P$61</f>
-        <v>6.9502899565489131E-3</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <f>'Table MV-1'!$P22/'Table MV-1'!$P$61</f>
-        <v>6.9502899565489131E-3</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -6858,24 +6496,19 @@
         <v>45</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
-        <v>3.7864302450454933E-2</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <f>'Table MV-1'!J23/'Table MV-1'!$J$61</f>
-        <v>3.7864302450454933E-2</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <f>'Table MV-1'!$P23/'Table MV-1'!$P$61</f>
-        <v>3.837338547117259E-2</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <f>'Table MV-1'!$P23/'Table MV-1'!$P$61</f>
-        <v>3.837338547117259E-2</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <f>'Table MV-1'!$P23/'Table MV-1'!$P$61</f>
-        <v>3.837338547117259E-2</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -6886,24 +6519,19 @@
         <v>44</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
-        <v>2.3819250059067168E-2</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <f>'Table MV-1'!J24/'Table MV-1'!$J$61</f>
-        <v>2.3819250059067168E-2</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <f>'Table MV-1'!$P24/'Table MV-1'!$P$61</f>
-        <v>2.2470473208938503E-2</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <f>'Table MV-1'!$P24/'Table MV-1'!$P$61</f>
-        <v>2.2470473208938503E-2</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <f>'Table MV-1'!$P24/'Table MV-1'!$P$61</f>
-        <v>2.2470473208938503E-2</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -6914,24 +6542,19 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
-        <v>1.5005240724472678E-2</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <f>'Table MV-1'!J25/'Table MV-1'!$J$61</f>
-        <v>1.5005240724472678E-2</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <f>'Table MV-1'!$P25/'Table MV-1'!$P$61</f>
-        <v>1.3726141018743511E-2</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <f>'Table MV-1'!$P25/'Table MV-1'!$P$61</f>
-        <v>1.3726141018743511E-2</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <f>'Table MV-1'!$P25/'Table MV-1'!$P$61</f>
-        <v>1.3726141018743511E-2</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -6942,24 +6565,19 @@
         <v>42</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
-        <v>1.0017236512864749E-2</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <f>'Table MV-1'!J26/'Table MV-1'!$J$61</f>
-        <v>1.0017236512864749E-2</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <f>'Table MV-1'!$P26/'Table MV-1'!$P$61</f>
-        <v>9.4360931295224514E-3</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <f>'Table MV-1'!$P26/'Table MV-1'!$P$61</f>
-        <v>9.4360931295224514E-3</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <f>'Table MV-1'!$P26/'Table MV-1'!$P$61</f>
-        <v>9.4360931295224514E-3</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -6970,24 +6588,19 @@
         <v>41</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
-        <v>1.6767766333459132E-2</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <f>'Table MV-1'!J27/'Table MV-1'!$J$61</f>
-        <v>1.6767766333459132E-2</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <f>'Table MV-1'!$P27/'Table MV-1'!$P$61</f>
-        <v>1.6163360078298817E-2</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <f>'Table MV-1'!$P27/'Table MV-1'!$P$61</f>
-        <v>1.6163360078298817E-2</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <f>'Table MV-1'!$P27/'Table MV-1'!$P$61</f>
-        <v>1.6163360078298817E-2</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -6998,24 +6611,19 @@
         <v>40</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
-        <v>1.4952243799136747E-2</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <f>'Table MV-1'!J28/'Table MV-1'!$J$61</f>
-        <v>1.4952243799136747E-2</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <f>'Table MV-1'!$P28/'Table MV-1'!$P$61</f>
-        <v>1.3994268785299344E-2</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <f>'Table MV-1'!$P28/'Table MV-1'!$P$61</f>
-        <v>1.3994268785299344E-2</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <f>'Table MV-1'!$P28/'Table MV-1'!$P$61</f>
-        <v>1.3994268785299344E-2</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -7026,24 +6634,19 @@
         <v>39</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
-        <v>4.472553985012004E-3</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <f>'Table MV-1'!J29/'Table MV-1'!$J$61</f>
-        <v>4.472553985012004E-3</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <f>'Table MV-1'!$P29/'Table MV-1'!$P$61</f>
-        <v>4.0632555805939817E-3</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <f>'Table MV-1'!$P29/'Table MV-1'!$P$61</f>
-        <v>4.0632555805939817E-3</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <f>'Table MV-1'!$P29/'Table MV-1'!$P$61</f>
-        <v>4.0632555805939817E-3</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -7054,24 +6657,19 @@
         <v>38</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
-        <v>1.3953713838208291E-2</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <f>'Table MV-1'!J30/'Table MV-1'!$J$61</f>
-        <v>1.3953713838208291E-2</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <f>'Table MV-1'!$P30/'Table MV-1'!$P$61</f>
-        <v>1.5263410504658027E-2</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <f>'Table MV-1'!$P30/'Table MV-1'!$P$61</f>
-        <v>1.5263410504658027E-2</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <f>'Table MV-1'!$P30/'Table MV-1'!$P$61</f>
-        <v>1.5263410504658027E-2</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -7082,24 +6680,19 @@
         <v>83</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
-        <v>1.7847984402303698E-2</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <f>'Table MV-1'!J31/'Table MV-1'!$J$61</f>
-        <v>1.7847984402303698E-2</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <f>'Table MV-1'!$P31/'Table MV-1'!$P$61</f>
-        <v>1.8254600811341285E-2</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <f>'Table MV-1'!$P31/'Table MV-1'!$P$61</f>
-        <v>1.8254600811341285E-2</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <f>'Table MV-1'!$P31/'Table MV-1'!$P$61</f>
-        <v>1.8254600811341285E-2</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -7110,24 +6703,19 @@
         <v>36</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
-        <v>3.4161287854521931E-2</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <f>'Table MV-1'!J32/'Table MV-1'!$J$61</f>
-        <v>3.4161287854521931E-2</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <f>'Table MV-1'!$P32/'Table MV-1'!$P$61</f>
-        <v>3.0637308640614442E-2</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <f>'Table MV-1'!$P32/'Table MV-1'!$P$61</f>
-        <v>3.0637308640614442E-2</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <f>'Table MV-1'!$P32/'Table MV-1'!$P$61</f>
-        <v>3.0637308640614442E-2</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -7138,24 +6726,19 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
-        <v>2.221147844524117E-2</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <f>'Table MV-1'!J33/'Table MV-1'!$J$61</f>
-        <v>2.221147844524117E-2</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <f>'Table MV-1'!$P33/'Table MV-1'!$P$61</f>
-        <v>2.0625139489048872E-2</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <f>'Table MV-1'!$P33/'Table MV-1'!$P$61</f>
-        <v>2.0625139489048872E-2</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <f>'Table MV-1'!$P33/'Table MV-1'!$P$61</f>
-        <v>2.0625139489048872E-2</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -7166,24 +6749,19 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
-        <v>7.63482155174601E-3</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <f>'Table MV-1'!J34/'Table MV-1'!$J$61</f>
-        <v>7.63482155174601E-3</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <f>'Table MV-1'!$P34/'Table MV-1'!$P$61</f>
-        <v>7.462400218225123E-3</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <f>'Table MV-1'!$P34/'Table MV-1'!$P$61</f>
-        <v>7.462400218225123E-3</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <f>'Table MV-1'!$P34/'Table MV-1'!$P$61</f>
-        <v>7.462400218225123E-3</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -7194,24 +6772,19 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
-        <v>2.1277992980917738E-2</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <f>'Table MV-1'!J35/'Table MV-1'!$J$61</f>
-        <v>2.1277992980917738E-2</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <f>'Table MV-1'!$P35/'Table MV-1'!$P$61</f>
-        <v>2.024919884507027E-2</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <f>'Table MV-1'!$P35/'Table MV-1'!$P$61</f>
-        <v>2.024919884507027E-2</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <f>'Table MV-1'!$P35/'Table MV-1'!$P$61</f>
-        <v>2.024919884507027E-2</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -7222,24 +6795,19 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
-        <v>7.0185743445526595E-3</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <f>'Table MV-1'!J36/'Table MV-1'!$J$61</f>
-        <v>7.0185743445526595E-3</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <f>'Table MV-1'!$P36/'Table MV-1'!$P$61</f>
-        <v>7.0766920109744495E-3</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <f>'Table MV-1'!$P36/'Table MV-1'!$P$61</f>
-        <v>7.0766920109744495E-3</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <f>'Table MV-1'!$P36/'Table MV-1'!$P$61</f>
-        <v>7.0766920109744495E-3</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -7250,24 +6818,19 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
-        <v>7.6979830346411097E-3</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <f>'Table MV-1'!J37/'Table MV-1'!$J$61</f>
-        <v>7.6979830346411097E-3</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <f>'Table MV-1'!$P37/'Table MV-1'!$P$61</f>
-        <v>7.0143680710759082E-3</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <f>'Table MV-1'!$P37/'Table MV-1'!$P$61</f>
-        <v>7.0143680710759082E-3</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <f>'Table MV-1'!$P37/'Table MV-1'!$P$61</f>
-        <v>7.0143680710759082E-3</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -7278,24 +6841,19 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
-        <v>8.9770758442244206E-3</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <f>'Table MV-1'!J38/'Table MV-1'!$J$61</f>
-        <v>8.9770758442244206E-3</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <f>'Table MV-1'!$P38/'Table MV-1'!$P$61</f>
-        <v>9.2397053063459945E-3</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <f>'Table MV-1'!$P38/'Table MV-1'!$P$61</f>
-        <v>9.2397053063459945E-3</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <f>'Table MV-1'!$P38/'Table MV-1'!$P$61</f>
-        <v>9.2397053063459945E-3</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -7306,24 +6864,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
-        <v>5.0478518381385203E-3</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <f>'Table MV-1'!J39/'Table MV-1'!$J$61</f>
-        <v>5.0478518381385203E-3</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <f>'Table MV-1'!$P39/'Table MV-1'!$P$61</f>
-        <v>4.9201517649550101E-3</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <f>'Table MV-1'!$P39/'Table MV-1'!$P$61</f>
-        <v>4.9201517649550101E-3</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <f>'Table MV-1'!$P39/'Table MV-1'!$P$61</f>
-        <v>4.9201517649550101E-3</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -7334,24 +6887,19 @@
         <v>28</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
-        <v>2.0550771847319699E-2</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <f>'Table MV-1'!J40/'Table MV-1'!$J$61</f>
-        <v>2.0550771847319699E-2</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <f>'Table MV-1'!$P40/'Table MV-1'!$P$61</f>
-        <v>2.1768607643858712E-2</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <f>'Table MV-1'!$P40/'Table MV-1'!$P$61</f>
-        <v>2.1768607643858712E-2</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <f>'Table MV-1'!$P40/'Table MV-1'!$P$61</f>
-        <v>2.1768607643858712E-2</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -7362,24 +6910,19 @@
         <v>27</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
-        <v>6.7792148090505171E-3</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <f>'Table MV-1'!J41/'Table MV-1'!$J$61</f>
-        <v>6.7792148090505171E-3</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <f>'Table MV-1'!$P41/'Table MV-1'!$P$61</f>
-        <v>6.4627236423600801E-3</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <f>'Table MV-1'!$P41/'Table MV-1'!$P$61</f>
-        <v>6.4627236423600801E-3</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <f>'Table MV-1'!$P41/'Table MV-1'!$P$61</f>
-        <v>6.4627236423600801E-3</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -7390,24 +6933,19 @@
         <v>26</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
-        <v>4.1040438660927506E-2</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <f>'Table MV-1'!J42/'Table MV-1'!$J$61</f>
-        <v>4.1040438660927506E-2</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <f>'Table MV-1'!$P42/'Table MV-1'!$P$61</f>
-        <v>4.1044623748877983E-2</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <f>'Table MV-1'!$P42/'Table MV-1'!$P$61</f>
-        <v>4.1044623748877983E-2</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <f>'Table MV-1'!$P42/'Table MV-1'!$P$61</f>
-        <v>4.1044623748877983E-2</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -7418,24 +6956,19 @@
         <v>25</v>
       </c>
       <c r="B35">
-        <f t="shared" si="0"/>
-        <v>3.1700275653385936E-2</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <f>'Table MV-1'!J43/'Table MV-1'!$J$61</f>
-        <v>3.1700275653385936E-2</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <f>'Table MV-1'!$P43/'Table MV-1'!$P$61</f>
-        <v>3.167401497304749E-2</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <f>'Table MV-1'!$P43/'Table MV-1'!$P$61</f>
-        <v>3.167401497304749E-2</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <f>'Table MV-1'!$P43/'Table MV-1'!$P$61</f>
-        <v>3.167401497304749E-2</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -7446,24 +6979,19 @@
         <v>24</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
-        <v>3.986117035446643E-3</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <f>'Table MV-1'!J44/'Table MV-1'!$J$61</f>
-        <v>3.986117035446643E-3</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <f>'Table MV-1'!$P44/'Table MV-1'!$P$61</f>
-        <v>3.2585714617236724E-3</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <f>'Table MV-1'!$P44/'Table MV-1'!$P$61</f>
-        <v>3.2585714617236724E-3</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <f>'Table MV-1'!$P44/'Table MV-1'!$P$61</f>
-        <v>3.2585714617236724E-3</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -7474,24 +7002,19 @@
         <v>23</v>
       </c>
       <c r="B37">
-        <f t="shared" si="0"/>
-        <v>3.6683925395789657E-2</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <f>'Table MV-1'!J45/'Table MV-1'!$J$61</f>
-        <v>3.6683925395789657E-2</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <f>'Table MV-1'!$P45/'Table MV-1'!$P$61</f>
-        <v>3.8390028384176433E-2</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <f>'Table MV-1'!$P45/'Table MV-1'!$P$61</f>
-        <v>3.8390028384176433E-2</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <f>'Table MV-1'!$P45/'Table MV-1'!$P$61</f>
-        <v>3.8390028384176433E-2</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -7502,24 +7025,19 @@
         <v>22</v>
       </c>
       <c r="B38">
-        <f t="shared" si="0"/>
-        <v>1.4677986568760525E-2</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <f>'Table MV-1'!J46/'Table MV-1'!$J$61</f>
-        <v>1.4677986568760525E-2</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <f>'Table MV-1'!$P46/'Table MV-1'!$P$61</f>
-        <v>1.3519637696831486E-2</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <f>'Table MV-1'!$P46/'Table MV-1'!$P$61</f>
-        <v>1.3519637696831486E-2</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <f>'Table MV-1'!$P46/'Table MV-1'!$P$61</f>
-        <v>1.3519637696831486E-2</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -7530,24 +7048,19 @@
         <v>21</v>
       </c>
       <c r="B39">
-        <f t="shared" si="0"/>
-        <v>1.5566676127984676E-2</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <f>'Table MV-1'!J47/'Table MV-1'!$J$61</f>
-        <v>1.5566676127984676E-2</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <f>'Table MV-1'!$P47/'Table MV-1'!$P$61</f>
-        <v>1.4843224067571648E-2</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <f>'Table MV-1'!$P47/'Table MV-1'!$P$61</f>
-        <v>1.4843224067571648E-2</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <f>'Table MV-1'!$P47/'Table MV-1'!$P$61</f>
-        <v>1.4843224067571648E-2</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -7558,24 +7071,19 @@
         <v>20</v>
       </c>
       <c r="B40">
-        <f t="shared" si="0"/>
-        <v>3.8593803021701831E-2</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <f>'Table MV-1'!J48/'Table MV-1'!$J$61</f>
-        <v>3.8593803021701831E-2</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <f>'Table MV-1'!$P48/'Table MV-1'!$P$61</f>
-        <v>3.8744741340554098E-2</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <f>'Table MV-1'!$P48/'Table MV-1'!$P$61</f>
-        <v>3.8744741340554098E-2</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <f>'Table MV-1'!$P48/'Table MV-1'!$P$61</f>
-        <v>3.8744741340554098E-2</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -7586,24 +7094,19 @@
         <v>19</v>
       </c>
       <c r="B41">
-        <f t="shared" si="0"/>
-        <v>2.8426879307146095E-3</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <f>'Table MV-1'!J49/'Table MV-1'!$J$61</f>
-        <v>2.8426879307146095E-3</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <f>'Table MV-1'!$P49/'Table MV-1'!$P$61</f>
-        <v>3.1409330317849157E-3</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <f>'Table MV-1'!$P49/'Table MV-1'!$P$61</f>
-        <v>3.1409330317849157E-3</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <f>'Table MV-1'!$P49/'Table MV-1'!$P$61</f>
-        <v>3.1409330317849157E-3</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -7614,24 +7117,19 @@
         <v>18</v>
       </c>
       <c r="B42">
-        <f t="shared" si="0"/>
-        <v>1.6494772704388254E-2</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <f>'Table MV-1'!J50/'Table MV-1'!$J$61</f>
-        <v>1.6494772704388254E-2</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <f>'Table MV-1'!$P50/'Table MV-1'!$P$61</f>
-        <v>1.6531642517752781E-2</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <f>'Table MV-1'!$P50/'Table MV-1'!$P$61</f>
-        <v>1.6531642517752781E-2</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <f>'Table MV-1'!$P50/'Table MV-1'!$P$61</f>
-        <v>1.6531642517752781E-2</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -7642,24 +7140,19 @@
         <v>17</v>
       </c>
       <c r="B43">
-        <f t="shared" si="0"/>
-        <v>5.1835093488657516E-3</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <f>'Table MV-1'!J51/'Table MV-1'!$J$61</f>
-        <v>5.1835093488657516E-3</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <f>'Table MV-1'!$P51/'Table MV-1'!$P$61</f>
-        <v>4.6909021621169989E-3</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <f>'Table MV-1'!$P51/'Table MV-1'!$P$61</f>
-        <v>4.6909021621169989E-3</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <f>'Table MV-1'!$P51/'Table MV-1'!$P$61</f>
-        <v>4.6909021621169989E-3</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -7670,24 +7163,19 @@
         <v>16</v>
       </c>
       <c r="B44">
-        <f t="shared" si="0"/>
-        <v>2.1883288976798098E-2</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <f>'Table MV-1'!J52/'Table MV-1'!$J$61</f>
-        <v>2.1883288976798098E-2</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <f>'Table MV-1'!$P52/'Table MV-1'!$P$61</f>
-        <v>2.1221790819698876E-2</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <f>'Table MV-1'!$P52/'Table MV-1'!$P$61</f>
-        <v>2.1221790819698876E-2</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <f>'Table MV-1'!$P52/'Table MV-1'!$P$61</f>
-        <v>2.1221790819698876E-2</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -7698,24 +7186,19 @@
         <v>15</v>
       </c>
       <c r="B45">
-        <f t="shared" si="0"/>
-        <v>8.6297781225124395E-2</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <f>'Table MV-1'!J53/'Table MV-1'!$J$61</f>
-        <v>8.6297781225124395E-2</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <f>'Table MV-1'!$P53/'Table MV-1'!$P$61</f>
-        <v>8.1255579629910979E-2</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <f>'Table MV-1'!$P53/'Table MV-1'!$P$61</f>
-        <v>8.1255579629910979E-2</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <f>'Table MV-1'!$P53/'Table MV-1'!$P$61</f>
-        <v>8.1255579629910979E-2</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -7726,24 +7209,19 @@
         <v>14</v>
       </c>
       <c r="B46">
-        <f t="shared" si="0"/>
-        <v>8.9600234207263124E-3</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <f>'Table MV-1'!J54/'Table MV-1'!$J$61</f>
-        <v>8.9600234207263124E-3</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <f>'Table MV-1'!$P54/'Table MV-1'!$P$61</f>
-        <v>8.9868975731671758E-3</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <f>'Table MV-1'!$P54/'Table MV-1'!$P$61</f>
-        <v>8.9868975731671758E-3</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <f>'Table MV-1'!$P54/'Table MV-1'!$P$61</f>
-        <v>8.9868975731671758E-3</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -7754,24 +7232,19 @@
         <v>13</v>
       </c>
       <c r="B47">
-        <f t="shared" si="0"/>
-        <v>2.3814053188992734E-3</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <f>'Table MV-1'!J55/'Table MV-1'!$J$61</f>
-        <v>2.3814053188992734E-3</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <f>'Table MV-1'!$P55/'Table MV-1'!$P$61</f>
-        <v>2.2031925927497274E-3</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <f>'Table MV-1'!$P55/'Table MV-1'!$P$61</f>
-        <v>2.2031925927497274E-3</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <f>'Table MV-1'!$P55/'Table MV-1'!$P$61</f>
-        <v>2.2031925927497274E-3</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -7782,24 +7255,19 @@
         <v>12</v>
       </c>
       <c r="B48">
-        <f t="shared" si="0"/>
-        <v>2.6816184066770478E-2</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <f>'Table MV-1'!J56/'Table MV-1'!$J$61</f>
-        <v>2.6816184066770478E-2</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <f>'Table MV-1'!$P56/'Table MV-1'!$P$61</f>
-        <v>2.7568275022629669E-2</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <f>'Table MV-1'!$P56/'Table MV-1'!$P$61</f>
-        <v>2.7568275022629669E-2</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <f>'Table MV-1'!$P56/'Table MV-1'!$P$61</f>
-        <v>2.7568275022629669E-2</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -7810,24 +7278,19 @@
         <v>11</v>
       </c>
       <c r="B49">
-        <f t="shared" si="0"/>
-        <v>2.6086002141878541E-2</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <f>'Table MV-1'!J57/'Table MV-1'!$J$61</f>
-        <v>2.6086002141878541E-2</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <f>'Table MV-1'!$P57/'Table MV-1'!$P$61</f>
-        <v>2.6303199799000584E-2</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <f>'Table MV-1'!$P57/'Table MV-1'!$P$61</f>
-        <v>2.6303199799000584E-2</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <f>'Table MV-1'!$P57/'Table MV-1'!$P$61</f>
-        <v>2.6303199799000584E-2</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -7838,24 +7301,19 @@
         <v>10</v>
       </c>
       <c r="B50">
-        <f t="shared" si="0"/>
-        <v>6.8260176103406393E-3</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <f>'Table MV-1'!J58/'Table MV-1'!$J$61</f>
-        <v>6.8260176103406393E-3</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <f>'Table MV-1'!$P58/'Table MV-1'!$P$61</f>
-        <v>6.0068230796770363E-3</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <f>'Table MV-1'!$P58/'Table MV-1'!$P$61</f>
-        <v>6.0068230796770363E-3</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <f>'Table MV-1'!$P58/'Table MV-1'!$P$61</f>
-        <v>6.0068230796770363E-3</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -7866,24 +7324,19 @@
         <v>9</v>
       </c>
       <c r="B51">
-        <f t="shared" si="0"/>
-        <v>2.1205726135675299E-2</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <f>'Table MV-1'!J59/'Table MV-1'!$J$61</f>
-        <v>2.1205726135675299E-2</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <f>'Table MV-1'!$P59/'Table MV-1'!$P$61</f>
-        <v>2.035520680727616E-2</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <f>'Table MV-1'!$P59/'Table MV-1'!$P$61</f>
-        <v>2.035520680727616E-2</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <f>'Table MV-1'!$P59/'Table MV-1'!$P$61</f>
-        <v>2.035520680727616E-2</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -7894,24 +7347,19 @@
         <v>8</v>
       </c>
       <c r="B52">
-        <f t="shared" si="0"/>
-        <v>3.9463197884523288E-3</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <f>'Table MV-1'!J60/'Table MV-1'!$J$61</f>
-        <v>3.9463197884523288E-3</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <f>'Table MV-1'!$P60/'Table MV-1'!$P$61</f>
-        <v>3.1206476693976084E-3</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <f>'Table MV-1'!$P60/'Table MV-1'!$P$61</f>
-        <v>3.1206476693976084E-3</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <f>'Table MV-1'!$P60/'Table MV-1'!$P$61</f>
-        <v>3.1206476693976084E-3</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <v>0</v>
